--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="467">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,81 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +458,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,175 +473,43 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -963,6 +911,9 @@
   </si>
   <si>
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.</t>
@@ -1672,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,7 +1633,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2865,11 +2816,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2878,10 +2831,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -2890,13 +2843,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2947,19 +2900,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -2968,7 +2921,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -2979,24 +2932,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
@@ -3005,13 +2958,17 @@
         <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3047,19 +3004,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3080,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>44</v>
@@ -3091,7 +3048,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3099,31 +3056,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3131,7 +3088,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3161,59 +3118,59 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
@@ -3225,18 +3182,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3261,10 +3220,10 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>44</v>
@@ -3273,23 +3232,25 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3298,34 +3259,32 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3340,13 +3299,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3373,10 +3332,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3397,7 +3356,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3409,7 +3368,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3418,7 +3377,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3427,15 +3386,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3445,7 +3402,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3454,15 +3411,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3499,19 +3458,19 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3520,7 +3479,7 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
@@ -3532,7 +3491,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3543,18 +3502,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3563,22 +3522,22 @@
         <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3603,13 +3562,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3627,28 +3586,28 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3659,7 +3618,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3670,10 +3629,10 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3682,18 +3641,20 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3717,35 +3678,37 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3754,34 +3717,32 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>52</v>
@@ -3796,30 +3757,32 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -3855,13 +3818,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -3870,24 +3833,24 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3895,7 +3858,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -3907,18 +3870,20 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3931,7 +3896,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -3967,7 +3932,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3979,16 +3944,16 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -3999,18 +3964,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -4019,20 +3984,18 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4069,40 +4032,40 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -4113,7 +4076,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4130,26 +4093,24 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4173,13 +4134,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4197,7 +4158,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4215,10 +4176,10 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4229,7 +4190,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4240,7 +4201,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4252,20 +4213,18 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4289,13 +4248,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4313,13 +4272,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4328,13 +4287,13 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4345,7 +4304,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4353,10 +4312,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4371,29 +4330,27 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4429,13 +4386,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4444,13 +4401,13 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4461,18 +4418,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4484,17 +4441,15 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4507,7 +4462,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4543,13 +4498,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4558,13 +4513,13 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4575,18 +4530,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4598,13 +4553,13 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4655,13 +4610,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4670,13 +4625,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4685,13 +4640,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4701,7 +4656,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4710,18 +4665,20 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4769,7 +4726,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4784,13 +4741,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4799,9 +4756,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4809,31 +4766,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4859,13 +4816,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4883,13 +4840,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -4898,24 +4855,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4923,31 +4880,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4973,13 +4930,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4997,13 +4954,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5012,38 +4969,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5052,16 +5009,20 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5085,13 +5046,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5109,7 +5068,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5124,16 +5083,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5141,18 +5100,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5164,20 +5123,22 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="Q31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5197,13 +5158,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5221,13 +5182,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5236,28 +5197,28 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5267,33 +5228,35 @@
         <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5337,7 +5300,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5352,13 +5315,13 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5369,15 +5332,15 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>52</v>
@@ -5386,22 +5349,22 @@
         <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5427,13 +5390,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5451,10 +5414,10 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>52</v>
@@ -5466,56 +5429,56 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5541,13 +5504,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5565,39 +5528,39 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5605,13 +5568,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
@@ -5620,19 +5583,17 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5657,11 +5618,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5679,13 +5642,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5697,21 +5660,21 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5719,13 +5682,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
@@ -5734,22 +5697,20 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5769,13 +5730,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5793,10 +5754,10 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>52</v>
@@ -5808,28 +5769,28 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5842,32 +5803,26 @@
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5911,7 +5866,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5926,28 +5881,28 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5966,17 +5921,15 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6001,13 +5954,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -6025,7 +5978,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6040,35 +5993,35 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6080,17 +6033,15 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -6115,13 +6066,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6139,16 +6090,16 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>64</v>
@@ -6157,25 +6108,25 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6185,7 +6136,7 @@
         <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>44</v>
@@ -6194,18 +6145,16 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6253,7 +6202,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6268,28 +6217,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6308,15 +6257,17 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6365,10 +6316,10 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>52</v>
@@ -6380,28 +6331,28 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6411,7 +6362,7 @@
         <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
@@ -6420,15 +6371,17 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6453,13 +6406,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6477,7 +6430,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6492,35 +6445,35 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>345</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>53</v>
@@ -6532,15 +6485,17 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6589,13 +6544,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6604,24 +6559,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6632,7 +6587,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6644,13 +6599,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6677,13 +6632,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6701,13 +6656,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6722,32 +6677,32 @@
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
@@ -6756,13 +6711,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6813,13 +6768,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6828,35 +6783,35 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>53</v>
@@ -6868,16 +6823,16 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>376</v>
+        <v>156</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6903,13 +6858,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>403</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6927,13 +6882,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6942,38 +6897,38 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -6982,16 +6937,16 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7017,13 +6972,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7041,13 +6996,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7056,28 +7011,28 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7087,26 +7042,24 @@
         <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7155,7 +7108,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7170,16 +7123,16 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7187,11 +7140,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7207,18 +7160,20 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7243,13 +7198,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7267,7 +7222,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7282,16 +7237,16 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7299,7 +7254,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7322,15 +7277,17 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7379,7 +7336,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7397,25 +7354,25 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>438</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7425,7 +7382,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
@@ -7434,18 +7391,20 @@
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7469,13 +7428,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7493,7 +7452,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7508,24 +7467,24 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7545,20 +7504,18 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7607,7 +7564,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7622,24 +7579,24 @@
         <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>431</v>
+        <v>304</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>44</v>
+        <v>455</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7650,25 +7607,25 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>434</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7719,13 +7676,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7734,13 +7691,13 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>438</v>
+        <v>304</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7751,11 +7708,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7774,16 +7731,16 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7833,7 +7790,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7848,591 +7805,23 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>447</v>
+        <v>95</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN59" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN59">
+  <autoFilter ref="A1:AN54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8442,7 +7831,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -6,16 +6,125 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="502">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-07-15T08:52:50+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The common structure for referral prescription.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -135,9 +244,6 @@
   </si>
   <si>
     <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
   </si>
   <si>
     <t>diagnostic request
@@ -1623,9 +1729,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1676,6148 +1951,6148 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="Q31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="Q32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>449</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>455</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -1729,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1817,77 +1817,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -475,6 +475,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -485,6 +565,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -552,18 +661,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -573,12 +670,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -612,10 +703,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -626,9 +713,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -870,7 +954,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1019,9 +1103,6 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.</t>
   </si>
   <si>
@@ -1378,7 +1459,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1412,7 +1493,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1906,7 +1987,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,7 +1997,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1939,7 +2020,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.4609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2883,7 +2964,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3099,13 +3180,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3114,10 +3193,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3126,13 +3205,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3183,19 +3262,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3204,7 +3283,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3215,24 +3294,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
@@ -3241,17 +3320,13 @@
         <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3287,19 +3362,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3320,7 +3395,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3331,7 +3406,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3339,31 +3414,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3371,7 +3446,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3401,59 +3476,59 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3465,20 +3540,18 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3503,10 +3576,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3515,25 +3588,23 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3542,32 +3613,34 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
@@ -3582,13 +3655,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3615,13 +3688,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3639,7 +3710,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3651,7 +3722,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -3660,7 +3731,7 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3669,13 +3740,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3685,7 +3758,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3694,17 +3767,15 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3741,19 +3812,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3762,7 +3833,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -3774,7 +3845,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3783,11 +3854,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3796,32 +3869,28 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3845,13 +3914,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3869,28 +3938,28 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3899,11 +3968,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3915,29 +3986,27 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3961,13 +4030,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3985,28 +4054,28 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4017,55 +4086,55 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4101,28 +4170,28 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4133,7 +4202,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4141,13 +4210,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4156,16 +4225,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4179,7 +4248,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4203,25 +4272,23 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4230,26 +4297,28 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4270,15 +4339,17 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4327,13 +4398,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4342,24 +4413,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4379,20 +4450,18 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4441,7 +4510,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4453,16 +4522,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4473,11 +4542,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4493,19 +4562,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4543,19 +4612,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4567,16 +4636,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4587,7 +4656,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4598,30 +4667,32 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4645,13 +4716,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4669,13 +4740,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4684,13 +4755,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4701,18 +4772,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4724,16 +4795,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4757,13 +4832,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4781,13 +4856,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4796,13 +4871,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4813,18 +4888,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4836,28 +4911,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4893,13 +4972,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4908,13 +4987,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4923,23 +5002,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4948,20 +5027,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4973,7 +5050,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5009,7 +5086,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5024,13 +5101,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5039,9 +5116,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5049,32 +5126,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5099,13 +5174,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5123,10 +5198,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5138,24 +5213,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5163,7 +5238,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5172,22 +5247,22 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5213,13 +5288,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5237,10 +5312,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5252,24 +5327,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5277,13 +5352,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5292,20 +5367,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5329,11 +5402,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5351,7 +5426,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5366,16 +5441,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5383,7 +5458,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5394,7 +5469,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5406,22 +5481,22 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P31" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5441,13 +5516,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5465,13 +5540,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5480,16 +5555,16 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5497,49 +5572,43 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P32" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5583,13 +5652,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5598,13 +5667,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5613,23 +5682,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5638,17 +5707,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5673,13 +5740,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5697,13 +5764,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5712,38 +5779,38 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5752,18 +5819,20 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5787,13 +5856,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -5811,39 +5880,39 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5851,33 +5920,33 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>341</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5901,13 +5970,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -5925,10 +5994,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5940,24 +6009,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5971,24 +6040,26 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>347</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6013,13 +6084,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6037,7 +6108,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6052,38 +6123,38 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6092,16 +6163,20 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6125,13 +6200,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6149,13 +6222,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6164,28 +6237,28 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6195,7 +6268,7 @@
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6204,20 +6277,22 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>367</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="Q38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6237,13 +6312,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6261,7 +6336,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6276,24 +6351,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6310,26 +6385,32 @@
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Q39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6349,13 +6430,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6373,7 +6454,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6388,28 +6469,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6428,15 +6509,17 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>385</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6461,13 +6544,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6485,7 +6568,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6500,38 +6583,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6540,16 +6623,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>395</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6575,13 +6658,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6599,43 +6682,43 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>403</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6645,7 +6728,7 @@
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6654,18 +6737,18 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6689,13 +6772,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6713,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6728,16 +6811,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6745,18 +6828,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6768,17 +6851,15 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6827,13 +6908,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6842,35 +6923,35 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6882,13 +6963,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6915,13 +6996,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -6939,13 +7020,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -6954,38 +7035,38 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6994,13 +7075,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7051,13 +7132,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7066,24 +7147,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7094,10 +7175,10 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7106,17 +7187,15 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>191</v>
+        <v>402</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7141,13 +7220,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7165,13 +7244,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7180,38 +7259,38 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7220,17 +7299,15 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7279,13 +7356,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7294,55 +7371,57 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7391,13 +7470,13 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7406,56 +7485,56 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7481,13 +7560,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7505,13 +7584,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -7520,28 +7599,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7551,7 +7630,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7560,16 +7639,16 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7619,7 +7698,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7634,16 +7713,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7651,11 +7730,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7674,20 +7753,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7711,13 +7786,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7735,7 +7810,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7753,21 +7828,21 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7787,16 +7862,16 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>48</v>
+        <v>451</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7847,7 +7922,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7862,24 +7937,24 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7890,7 +7965,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -7902,15 +7977,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7935,13 +8012,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7959,13 +8036,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -7974,16 +8051,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>467</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -7991,7 +8068,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8011,19 +8088,19 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8073,7 +8150,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8088,23 +8165,817 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8114,7 +8985,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -425,6 +425,9 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -592,6 +595,19 @@
   </si>
   <si>
     <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -1987,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2964,7 +2980,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -2979,13 +2995,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3024,17 +3040,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3046,7 +3062,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3069,7 +3085,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3091,16 +3107,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3150,7 +3166,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3159,19 +3175,19 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3182,7 +3198,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3208,10 +3224,10 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3262,7 +3278,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3283,7 +3299,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3294,7 +3310,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3317,13 +3333,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3362,19 +3378,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3386,7 +3402,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3406,7 +3422,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3432,13 +3448,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3446,7 +3462,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3488,7 +3504,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3520,7 +3536,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3543,13 +3559,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3576,10 +3592,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3588,17 +3604,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3630,10 +3646,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3655,13 +3671,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3688,11 +3704,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3710,7 +3726,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3745,7 +3761,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -3767,13 +3783,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3824,7 +3840,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3833,10 +3849,10 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -3859,7 +3875,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -3881,13 +3897,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3938,7 +3954,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3947,10 +3963,10 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -3973,14 +3989,14 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -3995,16 +4011,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4054,7 +4070,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4063,10 +4079,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4084,45 +4100,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4170,7 +4184,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4179,10 +4193,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4191,7 +4205,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4202,11 +4216,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4216,27 +4230,29 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4272,17 +4288,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4294,31 +4312,29 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4327,10 +4343,10 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4339,16 +4355,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4386,19 +4402,17 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4413,26 +4427,28 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4450,18 +4466,20 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4510,50 +4528,50 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4565,17 +4583,15 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4612,31 +4628,31 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4645,7 +4661,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4656,43 +4672,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4716,52 +4730,52 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4772,7 +4786,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4789,25 +4803,25 @@
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4832,13 +4846,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4856,7 +4870,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4874,10 +4888,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4888,7 +4902,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4896,7 +4910,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -4911,32 +4925,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4948,13 +4962,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4972,7 +4986,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4990,10 +5004,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5004,7 +5018,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5027,30 +5041,32 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5086,7 +5102,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5104,10 +5120,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5118,7 +5134,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5126,7 +5142,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5141,15 +5157,17 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5162,7 +5180,7 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5198,7 +5216,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5216,10 +5234,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5230,7 +5248,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5253,17 +5271,15 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5312,7 +5328,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5330,10 +5346,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5344,7 +5360,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5355,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5367,16 +5383,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5426,13 +5442,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5441,13 +5457,13 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5458,7 +5474,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5481,16 +5497,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5540,7 +5556,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5555,13 +5571,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5576,7 +5592,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5595,15 +5611,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5667,13 +5685,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5684,11 +5702,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5707,13 +5725,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5764,7 +5782,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5779,38 +5797,38 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5819,20 +5837,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5880,13 +5894,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -5895,13 +5909,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5912,15 +5926,15 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -5929,24 +5943,26 @@
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5970,13 +5986,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -5994,10 +6010,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6009,24 +6025,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6040,7 +6056,7 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>88</v>
@@ -6052,13 +6068,13 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6084,13 +6100,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6108,7 +6124,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6123,24 +6139,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6154,29 +6170,27 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6200,11 +6214,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6222,13 +6238,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6237,24 +6253,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6262,13 +6278,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6277,49 +6293,49 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="O38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Q38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6336,13 +6352,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6351,16 +6367,16 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6368,7 +6384,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6385,31 +6401,27 @@
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>79</v>
@@ -6430,13 +6442,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6454,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6469,28 +6481,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6500,31 +6512,35 @@
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6544,13 +6560,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6568,7 +6584,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6583,38 +6599,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6623,16 +6639,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6658,13 +6674,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6682,50 +6698,50 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6737,18 +6753,18 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6772,13 +6788,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6796,16 +6812,16 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
@@ -6814,21 +6830,21 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6836,13 +6852,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6851,16 +6867,18 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6908,10 +6926,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -6923,38 +6941,38 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6963,13 +6981,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7020,10 +7038,10 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -7035,28 +7053,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7066,7 +7084,7 @@
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7075,13 +7093,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7132,7 +7150,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7147,28 +7165,28 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7178,7 +7196,7 @@
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7187,13 +7205,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7220,13 +7238,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7244,7 +7262,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7259,28 +7277,28 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7290,7 +7308,7 @@
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7299,13 +7317,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7332,13 +7350,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7356,7 +7374,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7371,28 +7389,28 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7411,17 +7429,15 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7470,7 +7486,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7485,32 +7501,32 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
@@ -7525,16 +7541,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7560,13 +7576,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7584,7 +7600,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7599,35 +7615,35 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7639,16 +7655,16 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>443</v>
+        <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7674,13 +7690,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7698,13 +7714,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7713,28 +7729,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7744,7 +7760,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7753,15 +7769,17 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7786,13 +7804,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7810,7 +7828,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7825,16 +7843,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7842,7 +7860,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7865,13 +7883,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7898,13 +7916,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7922,7 +7940,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7943,18 +7961,18 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7968,7 +7986,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7977,17 +7995,15 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>162</v>
+        <v>462</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M53" t="s" s="2">
         <v>463</v>
       </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8012,13 +8028,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8036,7 +8052,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8051,24 +8067,24 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8076,13 +8092,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8091,16 +8107,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>471</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8126,13 +8142,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8150,7 +8166,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8165,16 +8181,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8182,7 +8198,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8202,18 +8218,20 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8262,7 +8280,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8277,16 +8295,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8294,11 +8312,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8317,17 +8335,15 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8376,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8391,13 +8407,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8408,11 +8424,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8428,19 +8444,19 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8490,7 +8506,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8505,13 +8521,13 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8522,11 +8538,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8545,20 +8561,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>162</v>
+        <v>500</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8582,13 +8596,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8606,7 +8620,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8624,25 +8638,25 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8658,19 +8672,23 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>512</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>48</v>
+        <v>508</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8694,13 +8712,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8718,7 +8736,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8733,24 +8751,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>516</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8761,25 +8779,25 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>517</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8830,13 +8848,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8845,10 +8863,10 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>520</v>
@@ -8857,12 +8875,12 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8873,19 +8891,19 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>522</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>523</v>
@@ -8893,9 +8911,7 @@
       <c r="L61" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8944,13 +8960,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8959,23 +8975,137 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8985,7 +9115,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -584,17 +584,14 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
     <t>executed</t>
@@ -4019,9 +4016,7 @@
       <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4105,17 +4100,17 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4127,13 +4122,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4216,11 +4211,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4242,16 +4237,16 @@
         <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4300,7 +4295,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4332,7 +4327,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4355,16 +4350,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4402,7 +4397,7 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
@@ -4412,7 +4407,7 @@
         <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4427,27 +4422,27 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4469,16 +4464,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4528,7 +4523,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4543,24 +4538,24 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4672,11 +4667,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4698,13 +4693,13 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4786,7 +4781,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4812,16 +4807,16 @@
         <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4846,31 +4841,31 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4891,7 +4886,7 @@
         <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4902,7 +4897,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4928,16 +4923,16 @@
         <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4965,28 +4960,28 @@
         <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5004,10 +4999,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5018,7 +5013,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5044,65 +5039,65 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5120,10 +5115,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5134,7 +5129,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5160,13 +5155,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5180,43 +5175,43 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5234,10 +5229,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5248,7 +5243,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5271,13 +5266,13 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5328,7 +5323,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5346,10 +5341,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5360,7 +5355,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5383,16 +5378,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5442,7 +5437,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5460,10 +5455,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5474,7 +5469,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5497,16 +5492,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5556,7 +5551,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5571,13 +5566,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5588,7 +5583,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5614,13 +5609,13 @@
         <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5670,7 +5665,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5685,13 +5680,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5702,11 +5697,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5725,13 +5720,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5782,7 +5777,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5797,13 +5792,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5814,11 +5809,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5837,13 +5832,13 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5894,7 +5889,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5909,13 +5904,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5926,11 +5921,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5949,19 +5944,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6010,7 +6005,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6025,13 +6020,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6042,7 +6037,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6068,13 +6063,13 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6100,14 +6095,14 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6124,7 +6119,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6139,24 +6134,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6182,13 +6177,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6214,14 +6209,14 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6238,7 +6233,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -6253,16 +6248,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6270,7 +6265,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6296,16 +6291,16 @@
         <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6334,7 +6329,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6352,7 +6347,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6370,13 +6365,13 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6384,7 +6379,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6410,10 +6405,10 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6421,35 +6416,35 @@
         <v>79</v>
       </c>
       <c r="P39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6466,7 +6461,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6481,16 +6476,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6498,7 +6493,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6521,26 +6516,26 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="Q40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6584,7 +6579,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6599,13 +6594,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6616,11 +6611,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6642,13 +6637,13 @@
         <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6677,11 +6672,11 @@
         <v>166</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6698,7 +6693,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6713,28 +6708,28 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6756,13 +6751,13 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6791,11 +6786,11 @@
         <v>166</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6812,7 +6807,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6821,7 +6816,7 @@
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
@@ -6830,21 +6825,21 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6867,17 +6862,17 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6926,7 +6921,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6944,10 +6939,10 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6958,7 +6953,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6981,13 +6976,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7038,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7053,28 +7048,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7093,13 +7088,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7150,7 +7145,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7165,28 +7160,28 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7205,13 +7200,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7262,7 +7257,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7277,24 +7272,24 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7317,13 +7312,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7353,11 +7348,11 @@
         <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7374,7 +7369,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7395,22 +7390,22 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7429,13 +7424,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7486,7 +7481,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7501,28 +7496,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7541,16 +7536,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7600,7 +7595,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7615,28 +7610,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7658,13 +7653,13 @@
         <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7693,11 +7688,11 @@
         <v>166</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7714,7 +7709,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7729,16 +7724,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7746,11 +7741,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7769,16 +7764,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7828,7 +7823,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7843,16 +7838,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7855,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7886,10 +7881,10 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7919,11 +7914,11 @@
         <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7940,7 +7935,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7961,10 +7956,10 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7972,7 +7967,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7995,13 +7990,13 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8052,7 +8047,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8073,10 +8068,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8084,7 +8079,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8110,13 +8105,13 @@
         <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8145,11 +8140,11 @@
         <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8166,7 +8161,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8181,16 +8176,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8198,7 +8193,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8221,16 +8216,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8280,7 +8275,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8295,16 +8290,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8312,7 +8307,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8335,13 +8330,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8392,7 +8387,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8407,13 +8402,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8424,11 +8419,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8447,16 +8442,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8506,7 +8501,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8521,13 +8516,13 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8538,7 +8533,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8561,16 +8556,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8620,7 +8615,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8638,10 +8633,10 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8652,11 +8647,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8678,16 +8673,16 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8715,11 +8710,11 @@
         <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8736,7 +8731,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8754,21 +8749,21 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8791,13 +8786,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8848,7 +8843,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8863,24 +8858,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8906,10 +8901,10 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8960,7 +8955,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8978,10 +8973,10 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -8992,7 +8987,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9015,16 +9010,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9074,7 +9069,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9089,13 +9084,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -5695,7 +5695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>277</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6723,7 +6723,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>361</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -970,10 +970,7 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -6097,11 +6094,9 @@
       <c r="W36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6134,24 +6129,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6177,13 +6172,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6212,11 +6207,11 @@
         <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6233,7 +6228,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -6248,16 +6243,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6265,7 +6260,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6291,16 +6286,16 @@
         <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6329,7 +6324,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6347,7 +6342,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6365,13 +6360,13 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6379,7 +6374,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6405,10 +6400,10 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6416,7 +6411,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>79</v>
@@ -6440,11 +6435,11 @@
         <v>218</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6461,7 +6456,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6476,16 +6471,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6493,7 +6488,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6516,26 +6511,26 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Q40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6579,7 +6574,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6594,13 +6589,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6611,11 +6606,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6637,13 +6632,13 @@
         <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6672,11 +6667,11 @@
         <v>166</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6693,7 +6688,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6708,28 +6703,28 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6751,13 +6746,13 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6786,11 +6781,11 @@
         <v>166</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6807,7 +6802,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6816,7 +6811,7 @@
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
@@ -6825,21 +6820,21 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6862,17 +6857,17 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6921,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6939,10 +6934,10 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6953,7 +6948,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6976,13 +6971,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7033,7 +7028,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7048,28 +7043,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7088,13 +7083,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7145,7 +7140,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7160,28 +7155,28 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7200,13 +7195,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7257,7 +7252,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7272,24 +7267,24 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7312,13 +7307,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7348,11 +7343,11 @@
         <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7369,7 +7364,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7390,22 +7385,22 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7424,13 +7419,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7481,7 +7476,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7496,28 +7491,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7536,16 +7531,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7595,7 +7590,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7610,28 +7605,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7653,13 +7648,13 @@
         <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7688,11 +7683,11 @@
         <v>166</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7709,7 +7704,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7724,16 +7719,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7741,11 +7736,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7764,16 +7759,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7823,7 +7818,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7838,16 +7833,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7855,7 +7850,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7881,10 +7876,10 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7914,11 +7909,11 @@
         <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7935,7 +7930,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7956,10 +7951,10 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7967,7 +7962,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7990,13 +7985,13 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8047,7 +8042,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8068,10 +8063,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8074,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8105,13 +8100,13 @@
         <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8140,11 +8135,11 @@
         <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8161,7 +8156,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8176,16 +8171,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8193,7 +8188,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8216,16 +8211,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8275,7 +8270,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8290,16 +8285,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8307,7 +8302,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8330,13 +8325,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8387,7 +8382,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8402,13 +8397,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8419,11 +8414,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8442,16 +8437,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8501,7 +8496,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8516,13 +8511,13 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8533,7 +8528,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8556,16 +8551,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8615,7 +8610,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8633,10 +8628,10 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8647,11 +8642,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8673,16 +8668,16 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8710,11 +8705,11 @@
         <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8731,7 +8726,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8749,21 +8744,21 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>514</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8786,13 +8781,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8843,7 +8838,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8858,24 +8853,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8901,10 +8896,10 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8955,7 +8950,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8973,10 +8968,10 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -8987,7 +8982,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9010,16 +9005,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9069,7 +9064,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9084,13 +9079,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -605,6 +605,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>BeLastestEndDate</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -1997,7 +2010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4206,32 +4219,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>191</v>
@@ -4239,12 +4254,8 @@
       <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4292,7 +4303,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4301,7 +4312,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>139</v>
@@ -4313,7 +4324,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4324,11 +4335,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4338,27 +4349,29 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4394,17 +4407,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4416,31 +4431,29 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4449,10 +4462,10 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4461,16 +4474,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4508,19 +4521,17 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4535,26 +4546,28 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4572,18 +4585,20 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4632,50 +4647,50 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4687,17 +4702,15 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4734,31 +4747,31 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -4778,43 +4791,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4838,52 +4849,52 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4894,7 +4905,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4911,25 +4922,25 @@
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4954,13 +4965,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4978,7 +4989,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4996,10 +5007,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5010,7 +5021,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5018,7 +5029,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
@@ -5033,32 +5044,32 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5070,13 +5081,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5094,7 +5105,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5112,10 +5123,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5126,7 +5137,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5149,30 +5160,32 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5208,7 +5221,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5226,10 +5239,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5240,7 +5253,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5248,7 +5261,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5263,15 +5276,17 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5284,7 +5299,7 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5320,7 +5335,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5338,10 +5353,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5352,7 +5367,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5375,17 +5390,15 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5434,7 +5447,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5452,10 +5465,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5466,7 +5479,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5477,7 +5490,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5489,16 +5502,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5548,13 +5561,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5563,13 +5576,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5580,7 +5593,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5603,16 +5616,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5662,7 +5675,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5677,13 +5690,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5692,13 +5705,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5708,7 +5721,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5717,15 +5730,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5774,7 +5789,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5789,13 +5804,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5804,13 +5819,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5820,7 +5835,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5829,13 +5844,13 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5886,7 +5901,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5901,13 +5916,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5916,23 +5931,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5941,20 +5956,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6002,13 +6013,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6017,13 +6028,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6034,15 +6045,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6051,24 +6062,26 @@
         <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6092,11 +6105,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6114,10 +6129,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6129,24 +6144,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6160,7 +6175,7 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>88</v>
@@ -6172,13 +6187,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6204,13 +6219,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6228,7 +6241,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -6243,24 +6256,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6274,29 +6287,27 @@
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6320,11 +6331,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6342,13 +6355,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6357,24 +6370,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6382,13 +6395,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6397,49 +6410,49 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Q39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6456,13 +6469,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6471,16 +6484,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6501,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6505,31 +6518,27 @@
         <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>340</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>79</v>
@@ -6550,13 +6559,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6574,7 +6583,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6589,28 +6598,28 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6620,31 +6629,35 @@
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Q41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6664,13 +6677,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6688,7 +6701,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6703,35 +6716,35 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -6746,13 +6759,13 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6781,10 +6794,10 @@
         <v>166</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6802,53 +6815,53 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6857,18 +6870,18 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6892,13 +6905,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6916,16 +6929,16 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>99</v>
@@ -6934,21 +6947,21 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6956,13 +6969,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6971,16 +6984,18 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7028,10 +7043,10 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -7043,38 +7058,38 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7083,13 +7098,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7140,10 +7155,10 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
@@ -7155,28 +7170,28 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7186,7 +7201,7 @@
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7195,13 +7210,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7252,7 +7267,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7267,28 +7282,28 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7298,7 +7313,7 @@
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7307,13 +7322,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7340,13 +7355,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7364,7 +7379,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7379,38 +7394,38 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7419,13 +7434,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7452,13 +7467,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7476,7 +7491,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7491,28 +7506,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7531,17 +7546,15 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7590,7 +7603,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7605,32 +7618,32 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
@@ -7645,16 +7658,16 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>163</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7680,13 +7693,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7704,7 +7717,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7719,35 +7732,35 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7759,16 +7772,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>446</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7794,13 +7807,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7818,13 +7831,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7833,28 +7846,28 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7864,7 +7877,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7873,15 +7886,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7906,13 +7921,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7930,7 +7945,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7945,16 +7960,16 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7962,7 +7977,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7985,13 +8000,13 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>460</v>
+        <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8018,13 +8033,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8042,7 +8057,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8066,13 +8081,13 @@
         <v>462</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>463</v>
       </c>
@@ -8082,13 +8097,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8097,17 +8112,15 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>464</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8132,13 +8145,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8171,24 +8184,24 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8196,13 +8209,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8211,16 +8224,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>474</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8246,13 +8259,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8270,7 +8283,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8285,16 +8298,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8302,7 +8315,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8322,18 +8335,20 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8382,7 +8397,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8397,16 +8412,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8414,11 +8429,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8437,17 +8452,15 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8496,7 +8509,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8511,13 +8524,13 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8528,11 +8541,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8548,19 +8561,19 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8610,7 +8623,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8625,13 +8638,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8642,11 +8655,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8665,20 +8678,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8702,13 +8713,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8726,7 +8737,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8744,25 +8755,25 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8778,19 +8789,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>515</v>
+        <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>48</v>
+        <v>510</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8814,13 +8829,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8838,7 +8853,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8853,24 +8868,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8881,25 +8896,25 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>519</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>521</v>
+        <v>48</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8950,13 +8965,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8965,22 +8980,22 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>524</v>
       </c>
@@ -8993,29 +9008,27 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>528</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9070,7 +9083,7 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9079,23 +9092,137 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="K63" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AL63" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9105,7 +9232,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -607,17 +607,17 @@
     <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>BeLastestEndDate</t>
-  </si>
-  <si>
-    <t>Request must be performed before</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -7760,7 +7760,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7874,7 +7874,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -605,6 +605,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>Request must be executed before</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>performer</t>
@@ -2010,7 +2023,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4231,7 +4244,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -4333,32 +4346,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>195</v>
@@ -4366,12 +4381,8 @@
       <c r="L21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4419,7 +4430,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4428,7 +4439,7 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>139</v>
@@ -4440,7 +4451,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4451,11 +4462,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4465,27 +4476,29 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4521,17 +4534,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4543,31 +4558,29 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4576,10 +4589,10 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4588,16 +4601,16 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4635,19 +4648,17 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4662,26 +4673,28 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4699,18 +4712,20 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4759,50 +4774,50 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4814,17 +4829,15 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4861,31 +4874,31 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -4905,43 +4918,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4965,52 +4976,52 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5021,7 +5032,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5038,25 +5049,25 @@
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5081,13 +5092,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5105,7 +5116,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5123,10 +5134,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5137,7 +5148,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5145,7 +5156,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5160,32 +5171,32 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5197,13 +5208,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5221,7 +5232,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5239,10 +5250,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5253,7 +5264,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5276,30 +5287,32 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5335,7 +5348,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5353,10 +5366,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5367,7 +5380,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5375,7 +5388,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5390,15 +5403,17 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5411,7 +5426,7 @@
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5447,7 +5462,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5465,10 +5480,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5479,7 +5494,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5502,17 +5517,15 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5561,7 +5574,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5579,10 +5592,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5593,7 +5606,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5604,7 +5617,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5616,16 +5629,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5675,13 +5688,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5690,13 +5703,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5707,7 +5720,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5730,16 +5743,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5789,7 +5802,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5804,13 +5817,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5819,13 +5832,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5835,7 +5848,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5844,15 +5857,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5901,7 +5916,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5916,13 +5931,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5931,13 +5946,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5947,7 +5962,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5956,13 +5971,13 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6013,7 +6028,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6028,13 +6043,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6043,23 +6058,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6068,20 +6083,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6129,13 +6140,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6144,13 +6155,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6161,15 +6172,15 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
@@ -6178,24 +6189,26 @@
         <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6219,11 +6232,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6241,10 +6256,10 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
@@ -6256,24 +6271,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6287,7 +6302,7 @@
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>88</v>
@@ -6299,13 +6314,13 @@
         <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6331,13 +6346,11 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6355,7 +6368,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>87</v>
@@ -6370,24 +6383,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6401,29 +6414,27 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6447,11 +6458,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6469,13 +6482,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6484,24 +6497,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6509,13 +6522,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6524,49 +6537,49 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6583,13 +6596,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6598,16 +6611,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6615,7 +6628,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6632,31 +6645,27 @@
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>344</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>79</v>
@@ -6677,13 +6686,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6701,7 +6710,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6716,28 +6725,28 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6747,31 +6756,35 @@
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6791,13 +6804,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6815,7 +6828,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6830,35 +6843,35 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6873,13 +6886,13 @@
         <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6908,10 +6921,10 @@
         <v>166</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6929,53 +6942,53 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6984,18 +6997,18 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7019,13 +7032,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7043,16 +7056,16 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
@@ -7061,21 +7074,21 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7083,13 +7096,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7098,16 +7111,18 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7155,10 +7170,10 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
@@ -7170,38 +7185,38 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7210,13 +7225,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7267,10 +7282,10 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7282,28 +7297,28 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7313,7 +7328,7 @@
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7322,13 +7337,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7379,7 +7394,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7394,28 +7409,28 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7425,7 +7440,7 @@
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7434,13 +7449,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7467,13 +7482,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7491,7 +7506,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7506,38 +7521,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7546,13 +7561,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7579,13 +7594,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7603,7 +7618,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7618,28 +7633,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7658,17 +7673,15 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7717,7 +7730,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7732,35 +7745,35 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7772,16 +7785,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>163</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7807,13 +7820,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7831,7 +7844,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7846,28 +7859,28 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7886,16 +7899,16 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>450</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7921,13 +7934,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7945,13 +7958,13 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7960,38 +7973,38 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8000,15 +8013,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>163</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8033,13 +8048,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8057,7 +8072,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8072,16 +8087,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8089,7 +8104,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8112,13 +8127,13 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>464</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8145,13 +8160,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8169,7 +8184,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8193,13 +8208,13 @@
         <v>466</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>467</v>
       </c>
@@ -8209,13 +8224,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8224,17 +8239,15 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>468</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8259,13 +8272,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8298,24 +8311,24 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8323,13 +8336,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8338,16 +8351,16 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8373,13 +8386,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8397,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8412,16 +8425,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8429,7 +8442,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8449,18 +8462,20 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8509,7 +8524,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8524,16 +8539,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8541,11 +8556,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8564,17 +8579,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8623,7 +8636,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8638,13 +8651,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8655,11 +8668,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8675,19 +8688,19 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8737,7 +8750,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8752,13 +8765,13 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8769,11 +8782,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8792,20 +8805,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>163</v>
+        <v>506</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8829,13 +8840,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8853,7 +8864,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8871,25 +8882,25 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8905,19 +8916,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>519</v>
+        <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>48</v>
+        <v>514</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8941,13 +8956,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8965,7 +8980,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8980,24 +8995,24 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9008,25 +9023,25 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>523</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>525</v>
+        <v>48</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9077,13 +9092,13 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9092,22 +9107,22 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>528</v>
       </c>
@@ -9120,29 +9135,27 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>532</v>
-      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9197,7 +9210,7 @@
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9206,23 +9219,137 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="K64" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AL64" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN63">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9232,7 +9359,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -6398,7 +6398,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>320</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -631,6 +631,19 @@
   </si>
   <si>
     <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2023,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4460,32 +4473,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>199</v>
@@ -4493,12 +4508,8 @@
       <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4546,7 +4557,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4555,7 +4566,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>139</v>
@@ -4567,7 +4578,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4578,11 +4589,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4592,27 +4603,29 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4648,17 +4661,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4670,31 +4685,29 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4703,10 +4716,10 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4715,16 +4728,16 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4762,19 +4775,17 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4789,26 +4800,28 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4826,18 +4839,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4886,50 +4901,50 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4941,17 +4956,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4988,31 +5001,31 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
@@ -5032,43 +5045,41 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5092,52 +5103,52 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5148,7 +5159,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5165,25 +5176,25 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5208,13 +5219,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5232,7 +5243,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5250,10 +5261,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5264,7 +5275,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5272,7 +5283,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5287,32 +5298,32 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5324,13 +5335,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5348,7 +5359,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5366,10 +5377,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5380,7 +5391,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5403,30 +5414,32 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5462,7 +5475,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5480,10 +5493,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5494,7 +5507,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5502,7 +5515,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5517,15 +5530,17 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5538,7 +5553,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5574,7 +5589,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5592,10 +5607,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5606,7 +5621,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5629,17 +5644,15 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5688,7 +5701,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5706,10 +5719,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5720,7 +5733,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5731,7 +5744,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5743,16 +5756,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5802,13 +5815,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5817,13 +5830,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5834,7 +5847,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5857,16 +5870,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5916,7 +5929,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5931,13 +5944,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5946,13 +5959,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5962,7 +5975,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5971,15 +5984,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6028,7 +6043,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6043,13 +6058,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6058,13 +6073,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6074,7 +6089,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6083,13 +6098,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6140,7 +6155,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6155,13 +6170,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6170,23 +6185,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6195,20 +6210,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6256,13 +6267,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6271,13 +6282,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6288,15 +6299,15 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
@@ -6305,24 +6316,26 @@
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6346,11 +6359,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6368,10 +6383,10 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>87</v>
@@ -6383,24 +6398,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6426,13 +6441,13 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6458,13 +6473,11 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6482,7 +6495,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>87</v>
@@ -6497,24 +6510,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6531,26 +6544,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6574,11 +6585,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6596,13 +6609,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6611,24 +6624,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6636,13 +6649,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6651,49 +6664,49 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6710,13 +6723,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6725,16 +6738,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6742,7 +6755,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6759,31 +6772,27 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Q42" t="s" s="2">
         <v>79</v>
@@ -6804,13 +6813,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6828,7 +6837,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6843,28 +6852,28 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6874,31 +6883,35 @@
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6918,13 +6931,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6942,7 +6955,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6957,35 +6970,35 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
@@ -7000,13 +7013,13 @@
         <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7035,10 +7048,10 @@
         <v>166</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7056,53 +7069,53 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7111,18 +7124,18 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7146,13 +7159,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7170,16 +7183,16 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
@@ -7188,21 +7201,21 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7210,13 +7223,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7225,16 +7238,18 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7282,10 +7297,10 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7297,38 +7312,38 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7337,13 +7352,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7394,10 +7409,10 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
@@ -7409,28 +7424,28 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7440,7 +7455,7 @@
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7449,13 +7464,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7506,7 +7521,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7521,28 +7536,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7552,7 +7567,7 @@
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7561,13 +7576,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7594,13 +7609,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7618,7 +7633,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7633,38 +7648,38 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7673,13 +7688,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7706,13 +7721,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7730,7 +7745,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7745,28 +7760,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7785,17 +7800,15 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7844,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7859,35 +7872,35 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7899,16 +7912,16 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>436</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7934,13 +7947,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7958,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7973,28 +7986,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8013,16 +8026,16 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>454</v>
+        <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8048,13 +8061,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8072,13 +8085,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -8087,38 +8100,38 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8127,15 +8140,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>458</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8160,13 +8175,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8184,7 +8199,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8199,16 +8214,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8216,7 +8231,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8239,13 +8254,13 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>468</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8272,13 +8287,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8296,7 +8311,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8320,13 +8335,13 @@
         <v>470</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>471</v>
       </c>
@@ -8336,13 +8351,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8351,17 +8366,15 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>472</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8386,13 +8399,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8425,24 +8438,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8450,13 +8463,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8465,16 +8478,16 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>482</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8500,13 +8513,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8524,7 +8537,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8539,16 +8552,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8556,7 +8569,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8576,18 +8589,20 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8636,7 +8651,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8651,16 +8666,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8668,11 +8683,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8691,17 +8706,15 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8750,7 +8763,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8765,13 +8778,13 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8782,11 +8795,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8802,19 +8815,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8864,7 +8877,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8879,13 +8892,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8896,11 +8909,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8919,20 +8932,18 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8956,13 +8967,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8980,7 +8991,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8998,25 +9009,25 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9032,19 +9043,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>523</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>48</v>
+        <v>518</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9068,13 +9083,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9092,7 +9107,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9107,24 +9122,24 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9135,25 +9150,25 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>527</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>529</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9204,13 +9219,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9219,22 +9234,22 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>532</v>
       </c>
@@ -9247,29 +9262,27 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>536</v>
-      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9324,7 +9337,7 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9333,23 +9346,137 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="K65" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AL65" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9359,7 +9486,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -1006,7 +1006,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
@@ -1508,7 +1508,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1542,7 +1542,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -646,6 +646,16 @@
     <t>Type of proposal</t>
   </si>
   <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1009,7 +1019,10 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -2036,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4587,45 +4600,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4682,7 +4693,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>139</v>
@@ -4694,7 +4705,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4705,11 +4716,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4719,27 +4730,29 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4775,17 +4788,19 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4797,31 +4812,29 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4830,10 +4843,10 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4842,16 +4855,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4889,19 +4902,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4916,26 +4927,28 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4953,18 +4966,20 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5013,50 +5028,50 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -5068,17 +5083,15 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5115,31 +5128,31 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5163,26 +5176,26 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>226</v>
@@ -5191,11 +5204,9 @@
         <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5219,52 +5230,52 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5275,7 +5286,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5292,25 +5303,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5335,13 +5346,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5359,7 +5370,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5377,10 +5388,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5391,7 +5402,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5399,7 +5410,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5414,32 +5425,32 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5451,13 +5462,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5475,7 +5486,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5493,10 +5504,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5507,7 +5518,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5530,30 +5541,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5589,7 +5602,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5607,10 +5620,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5621,7 +5634,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5629,7 +5642,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5644,15 +5657,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5665,7 +5680,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5701,7 +5716,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5719,10 +5734,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5733,7 +5748,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5756,17 +5771,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5815,7 +5828,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5833,10 +5846,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5847,7 +5860,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5858,7 +5871,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5870,16 +5883,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5935,7 +5948,7 @@
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -5944,13 +5957,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5961,7 +5974,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5984,16 +5997,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6043,7 +6056,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6058,13 +6071,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6073,13 +6086,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6089,7 +6102,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6098,15 +6111,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>291</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6155,7 +6170,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6170,13 +6185,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6185,13 +6200,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6201,7 +6216,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6210,13 +6225,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6267,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6282,13 +6297,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6297,23 +6312,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6322,20 +6337,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6383,13 +6394,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6398,13 +6409,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6415,15 +6426,15 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
@@ -6432,24 +6443,26 @@
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6473,11 +6486,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6495,10 +6510,10 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -6510,24 +6525,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6553,13 +6568,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6585,13 +6600,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6609,7 +6624,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6624,24 +6639,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6658,26 +6673,24 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6701,11 +6714,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6723,13 +6738,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6738,24 +6753,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6763,13 +6778,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6778,49 +6793,49 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6837,13 +6852,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6852,16 +6867,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6869,7 +6884,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6886,31 +6901,27 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>352</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>79</v>
@@ -6931,13 +6942,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6955,7 +6966,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6970,28 +6981,28 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7001,31 +7012,35 @@
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7045,13 +7060,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7069,7 +7084,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7084,35 +7099,35 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -7127,13 +7142,13 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7162,10 +7177,10 @@
         <v>166</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7183,53 +7198,53 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7238,18 +7253,18 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>382</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7273,13 +7288,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7297,16 +7312,16 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
@@ -7315,21 +7330,21 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7337,13 +7352,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7352,16 +7367,18 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7409,10 +7426,10 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
@@ -7424,38 +7441,38 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7464,13 +7481,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7521,10 +7538,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7536,28 +7553,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7567,7 +7584,7 @@
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7576,13 +7593,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7633,7 +7650,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7648,28 +7665,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7679,7 +7696,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7688,13 +7705,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7721,13 +7738,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7745,7 +7762,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7760,38 +7777,38 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7800,13 +7817,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7833,13 +7850,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7857,7 +7874,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7872,28 +7889,28 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7912,17 +7929,15 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7971,7 +7986,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7986,35 +8001,35 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -8026,16 +8041,16 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>163</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8061,13 +8076,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8085,7 +8100,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8100,28 +8115,28 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8140,16 +8155,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>458</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8175,13 +8190,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8199,13 +8214,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8214,38 +8229,38 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8254,15 +8269,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8287,13 +8304,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8311,7 +8328,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8326,16 +8343,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8343,7 +8360,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8366,13 +8383,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>472</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8399,13 +8416,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8423,7 +8440,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8447,13 +8464,13 @@
         <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>475</v>
       </c>
@@ -8463,13 +8480,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8478,17 +8495,15 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>476</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8513,13 +8528,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8552,24 +8567,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8577,13 +8592,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8592,16 +8607,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>486</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8627,13 +8642,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8651,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8666,16 +8681,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8683,7 +8698,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8703,18 +8718,20 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8763,7 +8780,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8778,16 +8795,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8795,11 +8812,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8818,17 +8835,15 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8877,7 +8892,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8892,13 +8907,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8909,11 +8924,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8929,19 +8944,19 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8991,7 +9006,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9006,13 +9021,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9023,11 +9038,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9046,20 +9061,18 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>163</v>
+        <v>514</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9083,13 +9096,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9107,7 +9120,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9125,25 +9138,25 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9159,19 +9172,23 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>527</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>48</v>
+        <v>522</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9195,13 +9212,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9219,7 +9236,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9234,24 +9251,24 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9262,25 +9279,25 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>531</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>533</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9331,13 +9348,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9346,22 +9363,22 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>536</v>
       </c>
@@ -9374,29 +9391,27 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9451,7 +9466,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9460,23 +9475,137 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="K66" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9486,7 +9615,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -654,6 +654,16 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
+</t>
+  </si>
+  <si>
+    <t>BeExtends</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2049,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4714,45 +4724,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4800,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4817,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4821,7 +4829,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4832,11 +4840,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4846,27 +4854,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4902,17 +4912,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4924,31 +4936,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4957,10 +4967,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4969,16 +4979,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5016,19 +5026,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5043,26 +5051,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5080,18 +5090,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5140,50 +5152,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5195,17 +5207,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5242,31 +5252,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5290,26 +5300,26 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>229</v>
@@ -5318,11 +5328,9 @@
         <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5346,52 +5354,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5402,7 +5410,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5419,25 +5427,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5462,13 +5470,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5486,7 +5494,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5504,10 +5512,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5518,7 +5526,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5526,7 +5534,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5541,32 +5549,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5578,13 +5586,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5602,7 +5610,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5620,10 +5628,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5634,7 +5642,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5657,30 +5665,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5716,7 +5726,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5734,10 +5744,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5748,7 +5758,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5756,7 +5766,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5771,15 +5781,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5792,7 +5804,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5828,7 +5840,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5846,10 +5858,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5860,7 +5872,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5883,17 +5895,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5942,7 +5952,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5960,10 +5970,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5974,7 +5984,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5985,7 +5995,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -5997,16 +6007,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6062,7 +6072,7 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6071,13 +6081,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6098,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6111,16 +6121,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6170,7 +6180,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6185,13 +6195,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6200,13 +6210,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6216,7 +6226,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6225,15 +6235,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6282,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6297,13 +6309,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6312,13 +6324,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6328,7 +6340,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6337,13 +6349,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6394,7 +6406,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6409,13 +6421,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6424,23 +6436,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6449,20 +6461,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6510,13 +6518,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6525,13 +6533,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6542,15 +6550,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6559,24 +6567,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6600,13 +6610,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6624,10 +6634,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6639,24 +6649,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6682,13 +6692,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6714,13 +6724,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6738,7 +6748,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6753,24 +6763,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6787,26 +6797,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6830,11 +6838,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6852,13 +6862,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6867,24 +6877,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6892,13 +6902,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6907,22 +6917,24 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6942,13 +6954,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6966,13 +6976,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6981,16 +6991,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6998,7 +7008,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7015,31 +7025,27 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
@@ -7060,13 +7066,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7084,7 +7090,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7099,28 +7105,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7130,31 +7136,35 @@
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7174,13 +7184,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7198,7 +7208,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7213,35 +7223,35 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -7256,13 +7266,13 @@
         <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7291,10 +7301,10 @@
         <v>166</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7312,53 +7322,53 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7367,18 +7377,18 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>386</v>
+        <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7402,13 +7412,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7426,16 +7436,16 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7444,21 +7454,21 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7466,13 +7476,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7481,16 +7491,18 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7538,10 +7550,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7553,38 +7565,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7593,13 +7605,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7650,10 +7662,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7665,28 +7677,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7696,7 +7708,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7705,13 +7717,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7762,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7777,28 +7789,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7808,7 +7820,7 @@
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7817,13 +7829,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7850,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7874,7 +7886,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7889,38 +7901,38 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7929,13 +7941,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7962,13 +7974,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7986,7 +7998,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8001,28 +8013,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8041,17 +8053,15 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8100,7 +8110,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8115,35 +8125,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8155,16 +8165,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8190,13 +8200,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8214,7 +8224,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8229,28 +8239,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8269,16 +8279,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8304,13 +8314,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8328,13 +8338,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8343,38 +8353,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8383,15 +8393,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8416,13 +8428,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8440,7 +8452,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8455,16 +8467,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8472,7 +8484,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8495,13 +8507,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>476</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8528,13 +8540,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8552,7 +8564,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8573,18 +8585,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8592,13 +8604,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8607,17 +8619,15 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>479</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>482</v>
-      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8642,13 +8652,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8666,7 +8676,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8681,24 +8691,24 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8706,13 +8716,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8721,16 +8731,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>490</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8756,13 +8766,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8780,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8795,16 +8805,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8812,7 +8822,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8832,18 +8842,20 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8892,7 +8904,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8907,16 +8919,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8924,11 +8936,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8947,17 +8959,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9006,7 +9016,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9021,13 +9031,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9038,11 +9048,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9058,19 +9068,19 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9120,7 +9130,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9135,13 +9145,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9152,11 +9162,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9175,20 +9185,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9212,13 +9220,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9236,7 +9244,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9254,25 +9262,25 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9288,19 +9296,23 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>531</v>
+        <v>163</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>48</v>
+        <v>525</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9324,13 +9336,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9348,7 +9360,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9363,24 +9375,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9391,25 +9403,25 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>534</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>537</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9460,13 +9472,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9475,24 +9487,24 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9503,29 +9515,27 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="K66" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9574,13 +9584,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9589,23 +9599,137 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="L67" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AL67" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9615,7 +9739,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -654,16 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>extends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
-</t>
-  </si>
-  <si>
-    <t>BeExtends</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2059,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4724,43 +4714,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4808,7 +4800,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4817,7 +4809,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4829,7 +4821,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4840,11 +4832,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4854,29 +4846,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4912,19 +4902,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4936,29 +4924,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4967,10 +4957,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4979,16 +4969,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5026,17 +5016,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5051,28 +5043,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5090,20 +5080,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5152,50 +5140,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5207,15 +5195,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5252,31 +5242,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5300,26 +5290,26 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>229</v>
@@ -5328,9 +5318,11 @@
         <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5354,52 +5346,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5410,7 +5402,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5427,25 +5419,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5470,13 +5462,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5494,7 +5486,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5512,10 +5504,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5526,7 +5518,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5534,7 +5526,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5549,32 +5541,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5586,13 +5578,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5610,7 +5602,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5628,10 +5620,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5642,7 +5634,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5665,32 +5657,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5726,7 +5716,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5744,10 +5734,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5758,7 +5748,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5766,7 +5756,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5781,17 +5771,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5804,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5840,7 +5828,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5858,10 +5846,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5872,7 +5860,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5895,15 +5883,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5952,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5970,10 +5960,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5984,7 +5974,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5995,7 +5985,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6007,16 +5997,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6072,7 +6062,7 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6081,13 +6071,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6098,7 +6088,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6121,16 +6111,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6180,7 +6170,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6195,13 +6185,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6210,13 +6200,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6226,7 +6216,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6235,17 +6225,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6294,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6309,13 +6297,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6324,13 +6312,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6340,7 +6328,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6349,13 +6337,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6406,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6421,13 +6409,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6436,23 +6424,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6461,16 +6449,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6518,13 +6510,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6533,13 +6525,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6550,15 +6542,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6567,26 +6559,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6610,13 +6600,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6634,10 +6624,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6649,24 +6639,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6692,13 +6682,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6724,13 +6714,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6748,7 +6738,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6763,24 +6753,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6797,24 +6787,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6838,13 +6830,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6862,13 +6852,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6877,24 +6867,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6902,13 +6892,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6917,24 +6907,22 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6954,35 +6942,37 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Y43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6991,16 +6981,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7008,7 +6998,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7025,27 +7015,31 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
@@ -7066,13 +7060,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7090,7 +7084,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7105,28 +7099,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7136,79 +7130,75 @@
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" t="s" s="2">
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="Q45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7223,35 +7213,35 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -7266,13 +7256,13 @@
         <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7301,10 +7291,10 @@
         <v>166</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7322,53 +7312,53 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>378</v>
-      </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7377,18 +7367,18 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7412,40 +7402,40 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7454,21 +7444,21 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7476,13 +7466,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7491,18 +7481,16 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7550,10 +7538,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7565,38 +7553,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7605,13 +7593,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7662,10 +7650,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7677,28 +7665,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7708,7 +7696,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7717,13 +7705,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7774,7 +7762,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7789,28 +7777,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7820,7 +7808,7 @@
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7829,13 +7817,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7862,13 +7850,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7886,7 +7874,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7901,38 +7889,38 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7941,13 +7929,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7974,31 +7962,31 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8013,28 +8001,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8053,15 +8041,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8110,7 +8100,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8125,35 +8115,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8165,16 +8155,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>443</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8200,13 +8190,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8224,7 +8214,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8239,28 +8229,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8279,16 +8269,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8314,13 +8304,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8338,13 +8328,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8353,38 +8343,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8393,17 +8383,15 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>465</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8428,13 +8416,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8452,7 +8440,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8467,16 +8455,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8484,7 +8472,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8507,13 +8495,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>476</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8540,31 +8528,31 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8585,18 +8573,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8604,13 +8592,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8619,15 +8607,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>479</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8652,13 +8642,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8676,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8691,24 +8681,24 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8716,13 +8706,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8731,16 +8721,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>490</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8766,13 +8756,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8790,7 +8780,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8805,16 +8795,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8822,7 +8812,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8842,20 +8832,18 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8904,7 +8892,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8919,16 +8907,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8936,11 +8924,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8959,15 +8947,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9016,7 +9006,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9031,13 +9021,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9048,11 +9038,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9068,19 +9058,19 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9130,7 +9120,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9145,13 +9135,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9162,11 +9152,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9185,18 +9175,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>517</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9220,13 +9212,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9244,7 +9236,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9262,25 +9254,25 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9296,23 +9288,19 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>525</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9336,31 +9324,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9375,24 +9363,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>521</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9403,25 +9391,25 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>534</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>48</v>
+        <v>537</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9472,13 +9460,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9487,24 +9475,24 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9515,27 +9503,29 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>541</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9584,13 +9574,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9599,137 +9589,23 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9739,7 +9615,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -555,13 +555,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
     <t>informParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
@@ -571,7 +571,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
@@ -597,7 +597,7 @@
     <t>executed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
 </t>
   </si>
   <si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -623,7 +623,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>proposalType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
 </t>
   </si>
   <si>
@@ -649,7 +649,7 @@
     <t>task</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
 </t>
   </si>
   <si>
@@ -804,7 +804,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/NamingSystem/uhmep</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1016,7 +1016,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1082,7 +1082,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-referral-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-referral-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1237,7 +1237,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1390,7 +1390,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1459,7 +1459,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1555,7 +1555,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2082,7 +2082,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -654,6 +654,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2049,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4714,45 +4721,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4800,7 +4805,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4814,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4821,7 +4826,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4832,11 +4837,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4846,27 +4851,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4902,17 +4909,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4924,31 +4933,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4957,10 +4964,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4969,16 +4976,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5016,19 +5023,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5043,26 +5048,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5080,18 +5087,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5140,50 +5149,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5195,17 +5204,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5242,31 +5249,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5286,43 +5293,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5346,52 +5351,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5402,7 +5407,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5419,25 +5424,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5462,13 +5467,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5486,7 +5491,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5504,10 +5509,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5518,7 +5523,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5526,7 +5531,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5541,32 +5546,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5578,13 +5583,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5602,7 +5607,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5620,10 +5625,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5634,7 +5639,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5657,30 +5662,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5716,7 +5723,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5734,10 +5741,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5748,7 +5755,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5756,7 +5763,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5771,15 +5778,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5792,7 +5801,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5828,7 +5837,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5846,10 +5855,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5860,7 +5869,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5883,17 +5892,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5942,7 +5949,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5960,10 +5967,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5974,7 +5981,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5985,7 +5992,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -5997,16 +6004,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6056,13 +6063,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6071,13 +6078,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6095,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6111,16 +6118,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6170,7 +6177,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6185,13 +6192,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6200,13 +6207,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6216,7 +6223,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6225,15 +6232,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6282,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6297,13 +6306,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6312,13 +6321,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6328,7 +6337,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6337,13 +6346,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6394,7 +6403,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6409,13 +6418,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6424,23 +6433,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6449,20 +6458,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6510,13 +6515,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6525,13 +6530,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6542,15 +6547,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6559,24 +6564,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6600,13 +6607,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6624,10 +6631,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6639,24 +6646,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6682,13 +6689,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6714,13 +6721,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6738,7 +6745,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6753,24 +6760,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6787,26 +6794,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6830,11 +6835,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6852,13 +6859,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6867,24 +6874,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6892,13 +6899,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6907,22 +6914,24 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6942,13 +6951,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6966,13 +6973,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6981,16 +6988,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6998,7 +7005,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7015,31 +7022,27 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
@@ -7060,13 +7063,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7084,7 +7087,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7099,28 +7102,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7130,31 +7133,35 @@
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7174,13 +7181,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7198,7 +7205,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7213,35 +7220,35 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -7256,13 +7263,13 @@
         <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7291,10 +7298,10 @@
         <v>166</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7312,53 +7319,53 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7367,18 +7374,18 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>386</v>
+        <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7402,13 +7409,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7426,16 +7433,16 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7444,21 +7451,21 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7466,13 +7473,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7481,16 +7488,18 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7538,10 +7547,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7553,38 +7562,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7593,13 +7602,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7650,10 +7659,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7665,28 +7674,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7696,7 +7705,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7705,13 +7714,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7762,7 +7771,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7777,28 +7786,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7808,7 +7817,7 @@
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7817,13 +7826,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7850,13 +7859,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7874,7 +7883,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7889,38 +7898,38 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7929,13 +7938,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7962,13 +7971,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7986,7 +7995,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8001,28 +8010,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8041,17 +8050,15 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8100,7 +8107,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8115,35 +8122,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8155,16 +8162,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8190,13 +8197,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8214,7 +8221,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8229,28 +8236,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8269,16 +8276,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8304,13 +8311,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8328,13 +8335,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8343,38 +8350,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8383,15 +8390,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>464</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8416,13 +8425,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8440,7 +8449,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8455,16 +8464,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8472,7 +8481,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8495,13 +8504,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>476</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8528,13 +8537,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8552,7 +8561,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8573,18 +8582,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8592,13 +8601,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8607,17 +8616,15 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>478</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8642,13 +8649,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8666,7 +8673,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8681,24 +8688,24 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8706,13 +8713,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8721,16 +8728,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>490</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8756,13 +8763,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8780,7 +8787,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8795,16 +8802,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8812,7 +8819,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8832,18 +8839,20 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8892,7 +8901,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8907,16 +8916,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8924,11 +8933,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8947,17 +8956,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9006,7 +9013,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9021,13 +9028,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9038,11 +9045,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9058,19 +9065,19 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9120,7 +9127,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9135,13 +9142,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9152,11 +9159,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9175,20 +9182,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>163</v>
+        <v>516</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9212,13 +9217,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9236,7 +9241,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9254,25 +9259,25 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9288,19 +9293,23 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>531</v>
+        <v>163</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>48</v>
+        <v>524</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9324,13 +9333,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9348,7 +9357,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9363,24 +9372,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9391,25 +9400,25 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>533</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>537</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9460,13 +9469,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9475,24 +9484,24 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9503,29 +9512,27 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>541</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9574,13 +9581,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9589,23 +9596,137 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="M67" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AL67" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9615,7 +9736,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -654,13 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2056,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4721,43 +4714,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4805,7 +4800,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4814,7 +4809,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4826,7 +4821,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4837,11 +4832,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4851,29 +4846,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4909,19 +4902,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4933,29 +4924,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4964,10 +4957,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4976,16 +4969,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5023,17 +5016,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5048,28 +5043,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5087,20 +5080,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5149,50 +5140,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5204,15 +5195,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5249,31 +5242,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5293,41 +5286,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5351,52 +5346,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5407,7 +5402,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5424,25 +5419,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5467,13 +5462,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5491,7 +5486,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5509,10 +5504,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5523,7 +5518,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5531,7 +5526,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5546,32 +5541,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5583,13 +5578,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5607,7 +5602,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5625,10 +5620,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5639,7 +5634,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5662,32 +5657,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5723,7 +5716,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5741,10 +5734,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5755,7 +5748,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5763,7 +5756,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5778,17 +5771,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5801,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5837,7 +5828,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5855,10 +5846,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5869,7 +5860,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5892,15 +5883,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5949,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5967,10 +5960,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5981,7 +5974,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5992,7 +5985,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6004,16 +5997,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6063,13 +6056,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6078,13 +6071,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6095,7 +6088,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6118,16 +6111,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6177,7 +6170,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6192,13 +6185,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6207,13 +6200,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6223,7 +6216,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6232,17 +6225,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6291,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6306,13 +6297,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6321,13 +6312,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6337,7 +6328,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6346,13 +6337,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6403,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6418,13 +6409,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6433,23 +6424,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6458,16 +6449,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6515,13 +6510,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6530,13 +6525,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6547,15 +6542,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6564,26 +6559,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6607,13 +6600,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6631,10 +6624,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6646,24 +6639,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6689,13 +6682,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6721,13 +6714,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6745,7 +6738,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6760,24 +6753,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6794,24 +6787,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6835,13 +6830,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6859,13 +6852,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6874,24 +6867,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6899,13 +6892,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6914,24 +6907,22 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6951,11 +6942,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6973,13 +6966,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6988,16 +6981,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7005,7 +6998,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7022,27 +7015,31 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
@@ -7063,13 +7060,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7087,7 +7084,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7102,28 +7099,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7133,35 +7130,31 @@
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>358</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7181,13 +7174,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7205,7 +7198,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7220,35 +7213,35 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -7263,13 +7256,13 @@
         <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7298,10 +7291,10 @@
         <v>166</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7319,53 +7312,53 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>377</v>
-      </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7374,18 +7367,18 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7409,13 +7402,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7433,16 +7426,16 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7451,21 +7444,21 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7473,13 +7466,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7488,18 +7481,16 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7547,10 +7538,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7562,38 +7553,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7602,13 +7593,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7659,10 +7650,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7674,28 +7665,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7705,7 +7696,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7714,13 +7705,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7771,7 +7762,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7786,28 +7777,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7817,7 +7808,7 @@
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7826,13 +7817,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7859,13 +7850,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7883,7 +7874,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7898,38 +7889,38 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7938,13 +7929,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7971,13 +7962,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7995,7 +7986,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8010,28 +8001,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8050,15 +8041,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8107,7 +8100,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8122,35 +8115,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8162,16 +8155,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>442</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8197,13 +8190,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8221,7 +8214,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8236,28 +8229,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8276,16 +8269,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8311,13 +8304,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8335,13 +8328,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8350,38 +8343,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8390,17 +8383,15 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>464</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8425,13 +8416,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8449,7 +8440,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8464,16 +8455,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8481,7 +8472,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8504,13 +8495,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>476</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8537,31 +8528,31 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8582,18 +8573,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8601,13 +8592,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8616,15 +8607,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8649,13 +8642,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8673,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8688,24 +8681,24 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8713,13 +8706,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8728,16 +8721,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>490</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8763,13 +8756,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8787,7 +8780,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8802,16 +8795,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8819,7 +8812,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8839,20 +8832,18 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8901,7 +8892,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8916,16 +8907,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8933,11 +8924,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8956,15 +8947,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9013,7 +9006,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9028,13 +9021,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9045,11 +9038,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9065,19 +9058,19 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9127,7 +9120,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9142,13 +9135,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9159,11 +9152,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9182,18 +9175,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>516</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9217,13 +9212,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9241,7 +9236,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9259,25 +9254,25 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9293,23 +9288,19 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>524</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9333,13 +9324,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9357,7 +9348,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9372,24 +9363,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>520</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9400,25 +9391,25 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>533</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>48</v>
+        <v>537</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9469,13 +9460,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9484,24 +9475,24 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9512,27 +9503,29 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>541</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9581,13 +9574,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9596,137 +9589,23 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9736,7 +9615,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -1669,6 +1669,77 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2049,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9150,7 +9221,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>520</v>
       </c>
@@ -9166,7 +9237,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9279,7 +9350,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9291,13 +9362,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>531</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>532</v>
+        <v>150</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9348,70 +9419,72 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>530</v>
+        <v>151</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>534</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>537</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9448,40 +9521,40 @@
         <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>536</v>
+        <v>155</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>539</v>
+        <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9492,9 +9565,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9503,7 +9578,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9515,17 +9590,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9574,7 +9647,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>540</v>
+        <v>155</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9586,26 +9659,596 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AL71" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9615,7 +10258,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -558,14 +558,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -3888,7 +3891,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3906,7 +3909,7 @@
         <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3978,7 +3981,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3992,7 +3995,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4014,13 +4017,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4106,7 +4109,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4128,13 +4131,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4220,7 +4223,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4242,13 +4245,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4334,7 +4337,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4356,13 +4359,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4448,7 +4451,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4470,13 +4473,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4562,7 +4565,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4584,13 +4587,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4676,7 +4679,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4698,13 +4701,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4787,11 +4790,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4813,16 +4816,16 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4871,7 +4874,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4903,7 +4906,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4926,16 +4929,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4973,7 +4976,7 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -4983,7 +4986,7 @@
         <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4998,27 +5001,27 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5040,16 +5043,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5099,7 +5102,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5114,24 +5117,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5243,11 +5246,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5269,13 +5272,13 @@
         <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5357,7 +5360,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5383,16 +5386,16 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5417,13 +5420,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5441,7 +5444,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5462,7 +5465,7 @@
         <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5499,16 +5502,16 @@
         <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5536,10 +5539,10 @@
         <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5557,7 +5560,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5575,10 +5578,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5589,7 +5592,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5615,29 +5618,29 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5673,7 +5676,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5691,10 +5694,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5705,7 +5708,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5731,13 +5734,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5751,7 +5754,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5787,7 +5790,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5805,10 +5808,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5819,7 +5822,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5842,13 +5845,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5899,7 +5902,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5917,10 +5920,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5931,7 +5934,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5954,16 +5957,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6013,7 +6016,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6031,10 +6034,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6045,7 +6048,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6068,16 +6071,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6127,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6142,13 +6145,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6185,13 +6188,13 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6241,7 +6244,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6256,13 +6259,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6273,11 +6276,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6296,13 +6299,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6353,7 +6356,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6368,13 +6371,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6385,11 +6388,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6408,13 +6411,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6465,7 +6468,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6480,13 +6483,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6497,11 +6500,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6520,19 +6523,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6581,7 +6584,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6596,13 +6599,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6639,13 +6642,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6671,13 +6674,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6695,7 +6698,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6710,24 +6713,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6753,13 +6756,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6785,13 +6788,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6809,7 +6812,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6824,16 +6827,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6841,7 +6844,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6867,16 +6870,16 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6905,7 +6908,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6923,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6941,13 +6944,13 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6955,7 +6958,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6981,10 +6984,10 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6992,7 +6995,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>79</v>
@@ -7013,13 +7016,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7037,7 +7040,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7052,16 +7055,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7069,7 +7072,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7092,70 +7095,70 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Q44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Q44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7170,13 +7173,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7187,11 +7190,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7213,13 +7216,13 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7248,10 +7251,10 @@
         <v>166</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7269,7 +7272,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7284,28 +7287,28 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7327,13 +7330,13 @@
         <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7362,10 +7365,10 @@
         <v>166</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7383,7 +7386,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7392,7 +7395,7 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
@@ -7401,21 +7404,21 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7438,17 +7441,17 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7497,7 +7500,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7515,10 +7518,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7529,7 +7532,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7552,13 +7555,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7609,7 +7612,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>87</v>
@@ -7624,28 +7627,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7664,13 +7667,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7721,7 +7724,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7736,28 +7739,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7776,13 +7779,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7833,7 +7836,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7848,24 +7851,24 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7888,13 +7891,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7924,10 +7927,10 @@
         <v>166</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7945,7 +7948,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7966,22 +7969,22 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8000,13 +8003,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8057,7 +8060,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8072,28 +8075,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8112,16 +8115,16 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8171,7 +8174,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8186,28 +8189,28 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8229,13 +8232,13 @@
         <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8264,10 +8267,10 @@
         <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8285,7 +8288,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8300,16 +8303,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8317,11 +8320,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8340,16 +8343,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8399,7 +8402,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8414,16 +8417,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8431,7 +8434,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8457,10 +8460,10 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8490,10 +8493,10 @@
         <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8511,7 +8514,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8532,10 +8535,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8543,7 +8546,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8566,13 +8569,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8623,7 +8626,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8644,10 +8647,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8655,7 +8658,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8681,13 +8684,13 @@
         <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8716,10 +8719,10 @@
         <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8737,7 +8740,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8752,16 +8755,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8769,7 +8772,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8792,16 +8795,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8851,7 +8854,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8866,16 +8869,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8883,7 +8886,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8906,13 +8909,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8963,7 +8966,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8978,13 +8981,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8995,11 +8998,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9018,16 +9021,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9077,7 +9080,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9092,13 +9095,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9109,7 +9112,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9132,16 +9135,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9191,7 +9194,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9209,10 +9212,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9223,11 +9226,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9249,16 +9252,16 @@
         <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9286,10 +9289,10 @@
         <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9307,7 +9310,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9325,21 +9328,21 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9451,11 +9454,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9477,13 +9480,13 @@
         <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9565,10 +9568,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>79</v>
@@ -9590,13 +9593,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9679,7 +9682,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9702,19 +9705,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9763,7 +9766,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9781,10 +9784,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9795,7 +9798,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9821,16 +9824,16 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9879,7 +9882,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9897,10 +9900,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9911,7 +9914,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9934,13 +9937,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9991,7 +9994,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10006,24 +10009,24 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10049,10 +10052,10 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10103,7 +10106,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10121,10 +10124,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10135,7 +10138,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10158,16 +10161,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10217,7 +10220,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10232,13 +10235,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -613,7 +613,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -657,6 +657,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2123,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4788,45 +4795,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4883,7 +4888,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4895,7 +4900,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4906,11 +4911,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4920,27 +4925,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4976,17 +4983,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4998,31 +5007,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5031,10 +5038,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5043,16 +5050,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5090,19 +5097,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5117,26 +5122,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5154,18 +5161,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5214,50 +5223,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5269,17 +5278,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5316,31 +5323,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5360,43 +5367,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5420,52 +5425,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5476,7 +5481,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5493,25 +5498,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5536,13 +5541,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5560,7 +5565,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5578,10 +5583,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5592,7 +5597,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5600,7 +5605,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5615,32 +5620,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5652,13 +5657,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5676,7 +5681,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5694,10 +5699,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5708,7 +5713,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5731,30 +5736,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5790,7 +5797,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5808,10 +5815,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5822,7 +5829,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5830,7 +5837,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5845,15 +5852,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5875,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5902,7 +5911,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5920,10 +5929,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5934,7 +5943,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5957,17 +5966,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6016,7 +6023,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6034,10 +6041,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6048,7 +6055,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6059,7 +6066,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6071,16 +6078,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6130,13 +6137,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6145,13 +6152,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6162,7 +6169,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6185,16 +6192,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6244,7 +6251,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6259,13 +6266,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6274,13 +6281,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6290,7 +6297,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6299,15 +6306,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6356,7 +6365,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6371,13 +6380,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6386,13 +6395,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6402,7 +6411,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6411,13 +6420,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6468,7 +6477,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6483,13 +6492,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6498,23 +6507,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6523,20 +6532,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6584,13 +6589,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6599,13 +6604,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6616,15 +6621,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6633,24 +6638,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6674,13 +6681,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6698,10 +6705,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6713,24 +6720,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6756,13 +6763,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6788,13 +6795,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6812,7 +6819,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6827,24 +6834,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6861,26 +6868,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6904,11 +6909,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6926,13 +6933,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6941,24 +6948,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6966,13 +6973,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6981,22 +6988,24 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7016,13 +7025,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7040,13 +7047,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7055,16 +7062,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7072,7 +7079,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7089,31 +7096,27 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
@@ -7134,13 +7137,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7158,7 +7161,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7173,28 +7176,28 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7204,31 +7207,35 @@
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7248,13 +7255,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7272,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7287,35 +7294,35 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -7330,13 +7337,13 @@
         <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7365,10 +7372,10 @@
         <v>166</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7386,53 +7393,53 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7441,18 +7448,18 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>387</v>
+        <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7476,13 +7483,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7500,16 +7507,16 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7518,21 +7525,21 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7540,13 +7547,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7555,16 +7562,18 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7612,10 +7621,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7627,38 +7636,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7667,13 +7676,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7724,10 +7733,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7739,28 +7748,28 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7770,7 +7779,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7779,13 +7788,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7836,7 +7845,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7851,28 +7860,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7882,7 +7891,7 @@
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7891,13 +7900,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7924,13 +7933,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7948,7 +7957,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7963,38 +7972,38 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8003,13 +8012,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8036,13 +8045,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8060,7 +8069,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8075,28 +8084,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8115,17 +8124,15 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8174,7 +8181,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8189,35 +8196,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8229,16 +8236,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8264,13 +8271,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8288,7 +8295,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8303,28 +8310,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8343,16 +8350,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8378,13 +8385,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8402,13 +8409,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8417,38 +8424,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8457,15 +8464,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8490,13 +8499,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8514,7 +8523,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8529,16 +8538,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8546,7 +8555,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8569,13 +8578,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>477</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8602,13 +8611,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8626,7 +8635,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8647,18 +8656,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8666,13 +8675,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8681,17 +8690,15 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>479</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8716,13 +8723,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8740,7 +8747,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8755,24 +8762,24 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8780,13 +8787,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8795,16 +8802,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>491</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8830,13 +8837,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8854,7 +8861,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8869,16 +8876,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8886,7 +8893,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8906,18 +8913,20 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8966,7 +8975,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8981,16 +8990,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8998,11 +9007,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9021,17 +9030,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9080,7 +9087,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9095,13 +9102,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9112,11 +9119,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9132,19 +9139,19 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9194,7 +9201,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9209,13 +9216,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9224,13 +9231,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9240,7 +9247,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9249,20 +9256,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9286,13 +9291,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9310,7 +9315,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9328,53 +9333,57 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>525</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9398,13 +9407,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9422,50 +9431,50 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>151</v>
+        <v>523</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>531</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9477,17 +9486,15 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9524,31 +9531,31 @@
         <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9568,20 +9575,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9593,15 +9598,17 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>535</v>
+        <v>229</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9638,16 +9645,16 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>155</v>
@@ -9671,7 +9678,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9682,9 +9689,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9693,7 +9702,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9702,23 +9711,19 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="K67" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>542</v>
-      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9766,7 +9771,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>543</v>
+        <v>155</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9778,16 +9783,16 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9798,7 +9803,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9809,7 +9814,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -9821,19 +9826,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>540</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9882,13 +9887,13 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -9900,10 +9905,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9914,7 +9919,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9925,7 +9930,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9934,19 +9939,23 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>48</v>
+        <v>549</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9994,13 +10003,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10009,24 +10018,24 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>385</v>
+        <v>554</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10037,25 +10046,25 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>557</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>561</v>
+        <v>48</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10106,13 +10115,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10121,24 +10130,24 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10149,29 +10158,27 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>565</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10220,13 +10227,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10235,23 +10242,137 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="M72" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN71">
+  <autoFilter ref="A1:AN72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10261,7 +10382,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -663,6 +663,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2130,7 +2137,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4909,45 +4916,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5004,7 +5009,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5016,7 +5021,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5027,11 +5032,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5041,27 +5046,29 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5097,17 +5104,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5119,31 +5128,29 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5152,10 +5159,10 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5164,16 +5171,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5211,19 +5218,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5238,26 +5243,28 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5275,18 +5282,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5335,50 +5344,50 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5390,17 +5399,15 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5437,31 +5444,31 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5481,43 +5488,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5541,52 +5546,52 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5597,7 +5602,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5614,25 +5619,25 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5657,13 +5662,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5681,7 +5686,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5699,10 +5704,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5713,7 +5718,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5721,7 +5726,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5736,32 +5741,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5773,13 +5778,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5797,7 +5802,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5815,10 +5820,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5829,7 +5834,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5852,30 +5857,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5911,7 +5918,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5929,10 +5936,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5943,7 +5950,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5951,7 +5958,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -5966,15 +5973,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5987,7 +5996,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6023,7 +6032,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6041,10 +6050,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6055,7 +6064,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6078,17 +6087,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6137,7 +6144,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6155,10 +6162,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6169,7 +6176,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6180,7 +6187,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6192,16 +6199,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6251,13 +6258,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6266,13 +6273,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6283,7 +6290,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6306,16 +6313,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6365,7 +6372,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6380,13 +6387,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6395,13 +6402,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6411,7 +6418,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6420,15 +6427,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6477,7 +6486,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6492,13 +6501,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6507,13 +6516,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6523,7 +6532,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6532,13 +6541,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6589,7 +6598,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6604,13 +6613,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6619,23 +6628,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6644,20 +6653,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6705,13 +6710,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6720,13 +6725,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6737,15 +6742,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
@@ -6754,24 +6759,26 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6795,13 +6802,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6819,10 +6826,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6834,24 +6841,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6877,13 +6884,13 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6909,13 +6916,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6933,7 +6940,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -6948,24 +6955,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6982,26 +6989,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7025,11 +7030,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7047,13 +7054,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7062,24 +7069,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7087,13 +7094,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7102,22 +7109,24 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7137,13 +7146,11 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7161,13 +7168,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7176,16 +7183,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7193,7 +7200,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7210,31 +7217,27 @@
         <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>359</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>79</v>
@@ -7255,13 +7258,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7279,7 +7282,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7294,28 +7297,28 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7325,31 +7328,35 @@
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>163</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7369,13 +7376,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7393,7 +7400,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7408,35 +7415,35 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>88</v>
@@ -7451,13 +7458,13 @@
         <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7486,10 +7493,10 @@
         <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7507,53 +7514,53 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7562,18 +7569,18 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>389</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7597,13 +7604,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7621,16 +7628,16 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
@@ -7639,21 +7646,21 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7661,13 +7668,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7676,16 +7683,18 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7733,10 +7742,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7748,38 +7757,38 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7788,13 +7797,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7845,10 +7854,10 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
@@ -7860,28 +7869,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7891,7 +7900,7 @@
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7900,13 +7909,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7957,7 +7966,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7972,28 +7981,28 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8003,7 +8012,7 @@
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8012,13 +8021,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8045,13 +8054,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8069,7 +8078,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8084,38 +8093,38 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8124,13 +8133,13 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8157,13 +8166,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8181,7 +8190,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8196,28 +8205,28 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8236,17 +8245,15 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8295,7 +8302,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8310,35 +8317,35 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8350,16 +8357,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>445</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8385,13 +8392,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8409,7 +8416,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8424,28 +8431,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8464,16 +8471,16 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>465</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8499,13 +8506,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8523,13 +8530,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8538,38 +8545,38 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8578,15 +8585,17 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8611,13 +8620,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8635,7 +8644,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8650,16 +8659,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8667,7 +8676,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8690,13 +8699,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>479</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8723,13 +8732,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8747,7 +8756,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8768,18 +8777,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8787,13 +8796,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8802,17 +8811,15 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>481</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8837,13 +8844,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8861,7 +8868,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8876,24 +8883,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8901,13 +8908,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8916,16 +8923,16 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>493</v>
+        <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8951,13 +8958,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8975,7 +8982,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8990,16 +8997,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9007,7 +9014,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9027,18 +9034,20 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9087,7 +9096,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9102,16 +9111,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9119,11 +9128,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9142,17 +9151,15 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9201,7 +9208,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9216,13 +9223,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9233,11 +9240,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9253,19 +9260,19 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9315,7 +9322,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9330,13 +9337,13 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9345,13 +9352,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9361,7 +9368,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9370,20 +9377,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9407,13 +9412,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9431,7 +9436,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9449,53 +9454,57 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>527</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9519,13 +9528,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9543,50 +9552,50 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>152</v>
+        <v>533</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9598,17 +9607,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9645,31 +9652,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9689,20 +9696,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9714,15 +9719,17 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>536</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>537</v>
+        <v>231</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9759,16 +9766,16 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>155</v>
@@ -9792,7 +9799,7 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9803,9 +9810,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9814,7 +9823,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -9823,23 +9832,19 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9887,7 +9892,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>545</v>
+        <v>155</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9899,16 +9904,16 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9919,7 +9924,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9930,7 +9935,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9942,19 +9947,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>542</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10003,13 +10008,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10021,10 +10026,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10035,7 +10040,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10046,7 +10051,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10055,19 +10060,23 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>557</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>48</v>
+        <v>551</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10115,13 +10124,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10130,24 +10139,24 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10158,25 +10167,25 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>559</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>563</v>
+        <v>48</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10227,13 +10236,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10242,24 +10251,24 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10270,29 +10279,27 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>567</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10341,13 +10348,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10356,23 +10363,137 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="M73" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN72">
+  <autoFilter ref="A1:AN73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10382,7 +10503,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -623,6 +623,19 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
@@ -671,6 +684,9 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2137,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4472,7 +4488,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4586,7 +4602,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -4721,7 +4737,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4807,7 +4823,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -4829,13 +4845,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4921,7 +4937,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -4943,13 +4959,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5030,45 +5046,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5116,7 +5130,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5125,7 +5139,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5137,7 +5151,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5148,11 +5162,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5162,27 +5176,29 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5218,17 +5234,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5240,31 +5258,29 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5273,10 +5289,10 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5285,16 +5301,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5332,19 +5348,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5359,26 +5373,28 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5396,18 +5412,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5456,50 +5474,50 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5511,17 +5529,15 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5558,31 +5574,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5602,43 +5618,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5662,52 +5676,52 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5718,7 +5732,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5735,25 +5749,25 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5778,13 +5792,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5802,7 +5816,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5820,10 +5834,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5834,7 +5848,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5842,7 +5856,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5857,32 +5871,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5894,13 +5908,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5918,7 +5932,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5936,10 +5950,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5950,7 +5964,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5973,30 +5987,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6032,7 +6048,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6050,10 +6066,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6064,7 +6080,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6072,7 +6088,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6087,15 +6103,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6108,7 +6126,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6144,7 +6162,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6162,10 +6180,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6176,7 +6194,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6199,17 +6217,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6258,7 +6274,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6276,10 +6292,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6290,7 +6306,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6301,7 +6317,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6313,16 +6329,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6372,13 +6388,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6387,13 +6403,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6404,7 +6420,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6427,16 +6443,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6486,7 +6502,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6501,13 +6517,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6516,13 +6532,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6532,7 +6548,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6541,15 +6557,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6613,28 +6631,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6644,7 +6662,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6653,13 +6671,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6710,7 +6728,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6725,38 +6743,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6765,20 +6783,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6826,13 +6840,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6841,13 +6855,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6858,15 +6872,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -6875,24 +6889,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6916,13 +6932,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6940,10 +6956,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -6955,24 +6971,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6998,13 +7014,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7030,13 +7046,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7054,7 +7070,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7069,24 +7085,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7103,26 +7119,24 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7146,11 +7160,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7168,13 +7184,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7183,24 +7199,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7208,13 +7224,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7223,49 +7239,49 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="O45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
+      <c r="Y45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Q45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7282,13 +7298,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7297,16 +7313,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7314,7 +7330,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7331,31 +7347,27 @@
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>361</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>79</v>
@@ -7376,13 +7388,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7400,7 +7412,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7415,28 +7427,28 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7446,31 +7458,35 @@
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>163</v>
+        <v>366</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7490,13 +7506,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7514,7 +7530,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7529,35 +7545,35 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
@@ -7572,13 +7588,13 @@
         <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7607,10 +7623,10 @@
         <v>166</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7628,53 +7644,53 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7683,18 +7699,18 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7718,13 +7734,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7742,16 +7758,16 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
@@ -7760,21 +7776,21 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7782,13 +7798,13 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7797,16 +7813,18 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7854,10 +7872,10 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
@@ -7869,38 +7887,38 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7909,13 +7927,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7966,10 +7984,10 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>87</v>
@@ -7981,28 +7999,28 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8012,7 +8030,7 @@
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8021,13 +8039,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8078,7 +8096,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8093,28 +8111,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8124,7 +8142,7 @@
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8133,13 +8151,13 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8166,13 +8184,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8190,7 +8208,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8205,38 +8223,38 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8245,13 +8263,13 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8278,13 +8296,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8302,7 +8320,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8317,28 +8335,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8357,17 +8375,15 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8416,7 +8432,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8431,35 +8447,35 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8471,16 +8487,16 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8506,13 +8522,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8530,7 +8546,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8545,28 +8561,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8585,16 +8601,16 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>467</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8620,13 +8636,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8644,13 +8660,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8659,38 +8675,38 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8699,15 +8715,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8732,13 +8750,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8756,7 +8774,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8771,16 +8789,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8788,7 +8806,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8811,13 +8829,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8844,13 +8862,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8868,7 +8886,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8889,18 +8907,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8908,13 +8926,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8923,17 +8941,15 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>163</v>
+        <v>486</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M60" t="s" s="2">
         <v>487</v>
       </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8958,13 +8974,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8982,7 +8998,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8997,24 +9013,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9022,13 +9038,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9037,16 +9053,16 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>495</v>
+        <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9072,13 +9088,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9096,7 +9112,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9111,16 +9127,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9128,7 +9144,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9148,18 +9164,20 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K62" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9208,7 +9226,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9223,16 +9241,16 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9240,11 +9258,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9263,17 +9281,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9322,7 +9338,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9337,13 +9353,13 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9354,11 +9370,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9374,19 +9390,19 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9436,7 +9452,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9451,28 +9467,28 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9482,7 +9498,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9491,20 +9507,18 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>524</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9528,13 +9542,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9552,7 +9566,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9570,53 +9584,57 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>532</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9640,13 +9658,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9664,50 +9682,50 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>151</v>
+        <v>530</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>152</v>
+        <v>538</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9719,17 +9737,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9766,31 +9782,31 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -9810,20 +9826,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -9835,15 +9849,17 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>538</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>539</v>
+        <v>236</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9880,16 +9896,16 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>155</v>
@@ -9913,7 +9929,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9926,7 +9942,9 @@
       <c r="A69" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9935,7 +9953,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9944,23 +9962,19 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M69" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N69" t="s" s="2">
-        <v>546</v>
-      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10008,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>547</v>
+        <v>155</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10020,16 +10034,16 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10040,7 +10054,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10051,7 +10065,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10063,19 +10077,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>547</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10124,13 +10138,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10142,10 +10156,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10156,7 +10170,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10167,7 +10181,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10176,19 +10190,23 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10236,13 +10254,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10251,10 +10269,10 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>562</v>
@@ -10263,12 +10281,12 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>563</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10279,25 +10297,25 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>564</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10348,13 +10366,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10363,10 +10381,10 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>567</v>
@@ -10375,12 +10393,12 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10391,19 +10409,19 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>569</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>570</v>
@@ -10411,9 +10429,7 @@
       <c r="L73" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>572</v>
-      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10462,13 +10478,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10477,23 +10493,137 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN73">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10503,7 +10633,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="582">
   <si>
     <t>Property</t>
   </si>
@@ -672,11 +672,17 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
 </t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>recorder</t>
@@ -4962,10 +4968,10 @@
         <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5051,7 +5057,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5073,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5162,11 +5168,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5188,16 +5194,16 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5246,7 +5252,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5278,7 +5284,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5301,16 +5307,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5348,7 +5354,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5358,7 +5364,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5373,27 +5379,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5415,16 +5421,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5474,7 +5480,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5489,24 +5495,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5618,11 +5624,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5644,13 +5650,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5732,7 +5738,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5758,16 +5764,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5792,13 +5798,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5816,7 +5822,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5837,7 +5843,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5848,7 +5854,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5874,16 +5880,16 @@
         <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5911,10 +5917,10 @@
         <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5932,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5950,10 +5956,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5964,7 +5970,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5990,29 +5996,29 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6048,7 +6054,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6066,10 +6072,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6080,7 +6086,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6106,13 +6112,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6126,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6162,7 +6168,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6180,10 +6186,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6194,7 +6200,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6217,13 +6223,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6274,7 +6280,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6292,10 +6298,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6306,7 +6312,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6329,16 +6335,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6388,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6406,10 +6412,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6420,7 +6426,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6443,16 +6449,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6502,7 +6508,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6517,13 +6523,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6534,7 +6540,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6560,13 +6566,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6616,7 +6622,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6631,13 +6637,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6648,11 +6654,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6671,13 +6677,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6728,7 +6734,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6743,13 +6749,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6760,11 +6766,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6783,13 +6789,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6840,7 +6846,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6855,13 +6861,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6872,11 +6878,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6895,19 +6901,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6956,7 +6962,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6971,13 +6977,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6988,7 +6994,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7014,13 +7020,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7046,13 +7052,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7070,7 +7076,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7085,24 +7091,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7128,13 +7134,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7160,13 +7166,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7184,7 +7190,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7199,16 +7205,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7216,7 +7222,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7242,16 +7248,16 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7280,7 +7286,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7298,7 +7304,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7316,13 +7322,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7330,7 +7336,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7356,10 +7362,10 @@
         <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7367,7 +7373,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>79</v>
@@ -7388,13 +7394,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7412,7 +7418,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7427,16 +7433,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7444,7 +7450,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7467,70 +7473,70 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Q47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Q47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7545,13 +7551,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7562,11 +7568,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7588,13 +7594,13 @@
         <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7623,10 +7629,10 @@
         <v>166</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7644,7 +7650,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7659,28 +7665,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7702,13 +7708,13 @@
         <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7737,10 +7743,10 @@
         <v>166</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7758,7 +7764,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7767,7 +7773,7 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
@@ -7776,21 +7782,21 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7813,17 +7819,17 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7872,7 +7878,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7890,10 +7896,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7904,7 +7910,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7927,13 +7933,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7984,7 +7990,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>87</v>
@@ -7999,28 +8005,28 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8039,13 +8045,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8096,7 +8102,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8111,28 +8117,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8151,13 +8157,13 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8208,7 +8214,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8223,24 +8229,24 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8263,13 +8269,13 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8299,10 +8305,10 @@
         <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8320,7 +8326,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8341,22 +8347,22 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8375,13 +8381,13 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8432,7 +8438,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8447,28 +8453,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8487,16 +8493,16 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8546,7 +8552,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8561,28 +8567,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8604,13 +8610,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8639,10 +8645,10 @@
         <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8660,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8675,16 +8681,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8692,11 +8698,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8715,16 +8721,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8774,7 +8780,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8789,16 +8795,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8806,7 +8812,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8832,10 +8838,10 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8865,10 +8871,10 @@
         <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8886,7 +8892,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8907,10 +8913,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8918,7 +8924,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8941,13 +8947,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8998,7 +9004,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9019,10 +9025,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9030,7 +9036,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9056,13 +9062,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9091,10 +9097,10 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9112,7 +9118,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9127,16 +9133,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9144,7 +9150,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9167,16 +9173,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9226,7 +9232,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9241,16 +9247,16 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9258,7 +9264,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9281,13 +9287,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9338,7 +9344,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9353,13 +9359,13 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9370,11 +9376,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9393,16 +9399,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9452,7 +9458,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9467,13 +9473,13 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9484,7 +9490,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9507,16 +9513,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9566,7 +9572,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9584,10 +9590,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9598,11 +9604,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9624,16 +9630,16 @@
         <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9661,10 +9667,10 @@
         <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9682,7 +9688,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9700,21 +9706,21 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9826,11 +9832,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9852,13 +9858,13 @@
         <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9940,10 +9946,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>79</v>
@@ -9965,13 +9971,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10054,7 +10060,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10077,19 +10083,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10138,7 +10144,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10156,10 +10162,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10170,7 +10176,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10196,16 +10202,16 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10254,7 +10260,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10272,10 +10278,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10286,7 +10292,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10309,13 +10315,13 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10366,7 +10372,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10381,24 +10387,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10424,10 +10430,10 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10478,7 +10484,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10496,10 +10502,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10510,7 +10516,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10533,16 +10539,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10592,7 +10598,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10607,13 +10613,13 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -574,11 +574,11 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -4041,7 +4041,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4611,7 +4611,7 @@
         <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -636,17 +636,17 @@
     <t>Request must leave draft status before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -1498,11 +1498,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2178,7 +2178,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>78</v>
@@ -8709,7 +8709,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -2169,43 +2169,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="548">
   <si>
     <t>Property</t>
   </si>
@@ -287,200 +287,204 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {request-statusReason}
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the resource.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -558,27 +562,24 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
-    <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
-    <t>Info about the other parties that have to take part in the prescription.</t>
+    <t>Other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -613,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -623,30 +624,17 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>latestDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>The prescription must have left the draft status befor this moment</t>
-  </si>
-  <si>
-    <t>Request must leave draft status before</t>
-  </si>
-  <si>
-    <t>performertasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
-</t>
-  </si>
-  <si>
-    <t>BePerformerTaskReference</t>
-  </si>
-  <si>
-    <t>List of references to the tasks performed by each performer</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -672,29 +660,6 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
-</t>
-  </si>
-  <si>
-    <t>BePSSInfo</t>
-  </si>
-  <si>
-    <t>Prescription Search Support Info</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
-</t>
-  </si>
-  <si>
-    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
-  </si>
-  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1498,11 +1463,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitionerroles</t>
+    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -1708,77 +1673,6 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.extension</t>
-  </si>
-  <si>
-    <t>bodyLaterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
-</t>
-  </si>
-  <si>
-    <t>BeExtLaterality</t>
-  </si>
-  <si>
-    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2159,7 +2053,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2178,7 +2072,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3377,13 +3271,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3434,7 +3328,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3455,7 +3349,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3466,7 +3360,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3537,7 +3431,7 @@
         <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
@@ -3546,7 +3440,7 @@
         <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3578,7 +3472,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3604,13 +3498,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3618,7 +3512,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3660,7 +3554,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3692,7 +3586,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3715,13 +3609,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3748,10 +3642,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3760,17 +3654,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3802,10 +3696,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3827,13 +3721,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3860,11 +3754,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3882,7 +3776,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3917,7 +3811,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -3927,7 +3821,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3939,13 +3833,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4017,7 +3911,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4041,7 +3935,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4494,7 +4388,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4611,7 +4505,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4743,7 +4637,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4824,43 +4718,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4908,7 +4804,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4917,7 +4813,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4929,7 +4825,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4938,13 +4834,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4953,7 +4847,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4962,18 +4856,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5010,19 +4906,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5031,33 +4925,33 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5070,24 +4964,26 @@
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5136,7 +5032,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5145,66 +5041,62 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5252,19 +5144,19 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5273,7 +5165,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5284,11 +5176,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5298,25 +5190,25 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5354,9 +5246,11 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5364,7 +5258,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5376,31 +5270,29 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5415,24 +5307,26 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5456,13 +5350,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5480,13 +5374,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5495,24 +5389,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5532,19 +5426,23 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5568,13 +5466,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5592,7 +5490,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5604,16 +5502,16 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5624,18 +5522,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5644,33 +5542,35 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5694,40 +5594,40 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5738,7 +5638,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5746,7 +5646,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5755,26 +5655,24 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5786,7 +5684,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5798,13 +5696,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5822,7 +5720,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5840,10 +5738,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5854,7 +5752,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5877,20 +5775,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5914,13 +5808,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5938,7 +5832,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5956,10 +5850,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5970,7 +5864,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5978,7 +5872,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -5993,32 +5887,30 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6054,7 +5946,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6072,10 +5964,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6086,7 +5978,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6094,10 +5986,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6109,16 +6001,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6132,7 +6024,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6168,13 +6060,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6183,13 +6075,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6200,7 +6092,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6211,7 +6103,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6223,15 +6115,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6280,13 +6174,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6295,13 +6189,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6310,23 +6204,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6335,17 +6229,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6394,13 +6286,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6409,13 +6301,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6426,11 +6318,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6449,17 +6341,15 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6508,7 +6398,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6523,13 +6413,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6538,23 +6428,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6563,18 +6453,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6622,13 +6514,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6637,13 +6529,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6654,38 +6546,40 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6710,13 +6604,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6734,13 +6628,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6749,55 +6643,57 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6822,13 +6718,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6846,13 +6742,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6861,16 +6757,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6878,15 +6774,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -6901,19 +6797,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6938,13 +6834,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6962,13 +6856,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6977,24 +6871,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7002,16 +6896,16 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
@@ -7020,19 +6914,19 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7052,13 +6946,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7076,10 +6970,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7091,24 +6985,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7116,13 +7010,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>88</v>
@@ -7131,22 +7025,26 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7166,13 +7064,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7190,10 +7088,10 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -7205,16 +7103,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7222,15 +7120,15 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
@@ -7245,20 +7143,18 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7282,11 +7178,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7304,13 +7202,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7319,38 +7217,38 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7359,22 +7257,22 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P46" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7394,13 +7292,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7418,39 +7316,39 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7467,32 +7365,28 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7536,7 +7430,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7551,13 +7445,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7568,15 +7462,15 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
@@ -7591,17 +7485,15 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7626,13 +7518,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7650,10 +7542,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7665,38 +7557,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7705,17 +7597,15 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>163</v>
+        <v>403</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7740,13 +7630,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7764,43 +7654,43 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7810,7 +7700,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7819,18 +7709,16 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7878,7 +7766,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7893,24 +7781,24 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7918,13 +7806,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7933,13 +7821,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7966,13 +7854,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7990,10 +7878,10 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>87</v>
@@ -8005,38 +7893,38 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8045,13 +7933,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8102,7 +7990,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8117,32 +8005,32 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
@@ -8157,15 +8045,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8214,7 +8104,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8229,38 +8119,38 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8269,15 +8159,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>433</v>
+        <v>164</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8302,13 +8194,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8326,7 +8218,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8341,35 +8233,35 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8381,15 +8273,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8438,13 +8332,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8453,38 +8347,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8493,17 +8387,15 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>452</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8528,13 +8420,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8552,13 +8444,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8567,38 +8459,38 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8607,17 +8499,15 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>477</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8642,13 +8532,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8666,13 +8556,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8681,16 +8571,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8698,18 +8588,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8721,16 +8611,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>474</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8756,13 +8646,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8780,7 +8670,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8795,16 +8685,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8812,7 +8702,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8835,15 +8725,17 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>491</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8868,13 +8760,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8892,7 +8784,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8907,16 +8799,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8924,7 +8816,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8944,16 +8836,16 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9004,7 +8896,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9019,56 +8911,56 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>163</v>
+        <v>507</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9094,13 +8986,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9118,7 +9010,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9133,16 +9025,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9150,7 +9042,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9173,16 +9065,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9232,7 +9124,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9247,16 +9139,16 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9264,11 +9156,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9284,19 +9176,23 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>510</v>
+        <v>164</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9320,13 +9216,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9344,7 +9240,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9359,28 +9255,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9399,17 +9295,15 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>519</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9458,7 +9352,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9473,24 +9367,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>523</v>
+        <v>385</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9501,10 +9395,10 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9513,17 +9407,15 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>526</v>
+        <v>149</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9572,13 +9464,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9590,10 +9482,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>530</v>
+        <v>385</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9602,13 +9494,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9618,29 +9510,27 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>542</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9664,13 +9554,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9688,7 +9578,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9703,933 +9593,23 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>530</v>
+        <v>130</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10639,7 +9619,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="583">
   <si>
     <t>Property</t>
   </si>
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -562,24 +562,27 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -614,7 +617,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -624,17 +627,30 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -660,6 +676,29 @@
     <t>BeTaskReference</t>
   </si>
   <si>
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
+</t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
+</t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1463,11 +1502,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -1673,6 +1712,77 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2053,7 +2163,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2072,7 +2182,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3821,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3839,7 +3949,7 @@
         <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3911,7 +4021,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3925,7 +4035,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -3935,7 +4045,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3947,13 +4057,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4039,7 +4149,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4061,13 +4171,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4153,7 +4263,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4175,13 +4285,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4267,7 +4377,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4289,13 +4399,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4381,14 +4491,14 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4403,13 +4513,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4495,7 +4605,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4505,7 +4615,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4517,13 +4627,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4609,7 +4719,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4631,13 +4741,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4718,45 +4828,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4804,7 +4912,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4813,7 +4921,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4825,7 +4933,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4834,11 +4942,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4847,7 +4957,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4856,20 +4966,18 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4906,17 +5014,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4925,33 +5035,33 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -4964,26 +5074,24 @@
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5032,7 +5140,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5041,62 +5149,66 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5144,19 +5256,19 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5165,7 +5277,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5176,11 +5288,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5190,25 +5302,25 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5246,11 +5358,9 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5258,7 +5368,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5270,29 +5380,31 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5307,26 +5419,24 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5350,13 +5460,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5374,13 +5484,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5389,24 +5499,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5426,23 +5536,19 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5466,13 +5572,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5490,7 +5596,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5502,16 +5608,16 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5522,18 +5628,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5542,35 +5648,33 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5594,40 +5698,40 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5638,7 +5742,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5646,7 +5750,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5655,24 +5759,26 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5684,7 +5790,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5696,13 +5802,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5720,7 +5826,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5738,10 +5844,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5858,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5775,16 +5881,20 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5808,13 +5918,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5832,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5850,10 +5960,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5864,7 +5974,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5872,7 +5982,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -5887,30 +5997,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -5946,7 +6058,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5964,10 +6076,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5978,7 +6090,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5986,10 +6098,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6001,16 +6113,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6024,7 +6136,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6060,13 +6172,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6075,13 +6187,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6092,7 +6204,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6103,7 +6215,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6115,17 +6227,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6174,13 +6284,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6189,13 +6299,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6204,23 +6314,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6229,15 +6339,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6286,13 +6398,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6301,13 +6413,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6318,11 +6430,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6341,15 +6453,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6398,7 +6512,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6413,13 +6527,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6428,23 +6542,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6453,20 +6567,18 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6514,13 +6626,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6529,13 +6641,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6546,40 +6658,38 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6604,13 +6714,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6628,13 +6738,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6643,57 +6753,55 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6718,13 +6826,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6742,13 +6850,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6757,16 +6865,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6774,15 +6882,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -6797,19 +6905,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6834,11 +6942,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6856,13 +6966,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6871,24 +6981,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6896,16 +7006,16 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
@@ -6914,19 +7024,19 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6946,13 +7056,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6970,10 +7080,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -6985,24 +7095,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7010,13 +7120,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>88</v>
@@ -7025,26 +7135,22 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7064,13 +7170,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7088,10 +7194,10 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -7103,16 +7209,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7120,15 +7226,15 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
@@ -7146,15 +7252,17 @@
         <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7178,13 +7286,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7202,13 +7308,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7217,38 +7323,38 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7257,22 +7363,22 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7292,13 +7398,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7316,39 +7422,39 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7365,28 +7471,32 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="Q47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7430,7 +7540,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7445,13 +7555,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7462,15 +7572,15 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
@@ -7485,15 +7595,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7518,13 +7630,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7542,10 +7654,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7557,38 +7669,38 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7597,15 +7709,17 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7630,13 +7744,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7654,43 +7768,43 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7700,7 +7814,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7709,16 +7823,18 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7766,7 +7882,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7781,24 +7897,24 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7806,13 +7922,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7821,13 +7937,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7854,13 +7970,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7878,10 +7994,10 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>87</v>
@@ -7893,38 +8009,38 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7933,13 +8049,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7990,7 +8106,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8005,32 +8121,32 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
@@ -8045,17 +8161,15 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8104,7 +8218,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8119,38 +8233,38 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8159,17 +8273,15 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8197,10 +8309,10 @@
         <v>167</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8218,7 +8330,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8233,35 +8345,35 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8273,17 +8385,15 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8332,13 +8442,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8347,38 +8457,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8387,15 +8497,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>164</v>
+        <v>453</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8420,13 +8532,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8444,13 +8556,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8459,38 +8571,38 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8499,15 +8611,17 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>477</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8532,13 +8646,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8556,13 +8670,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8571,16 +8685,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8588,18 +8702,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8611,16 +8725,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8646,13 +8760,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8670,7 +8784,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8685,16 +8799,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8702,7 +8816,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8725,17 +8839,15 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>491</v>
+        <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8760,13 +8872,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8784,7 +8896,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8799,16 +8911,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8816,7 +8928,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8836,16 +8948,16 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8896,7 +9008,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8911,56 +9023,56 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>507</v>
+        <v>164</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8986,13 +9098,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9010,7 +9122,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9025,16 +9137,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9042,7 +9154,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9065,16 +9177,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9124,7 +9236,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9139,16 +9251,16 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9156,11 +9268,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9176,23 +9288,19 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>164</v>
+        <v>511</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9216,13 +9324,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9240,7 +9348,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9255,28 +9363,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9295,15 +9403,17 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>48</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9352,7 +9462,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9367,24 +9477,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>385</v>
+        <v>524</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9395,10 +9505,10 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9407,15 +9517,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>149</v>
+        <v>527</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9464,13 +9576,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9482,10 +9594,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>385</v>
+        <v>531</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9494,13 +9606,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9510,27 +9622,29 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>542</v>
+        <v>164</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9554,13 +9668,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9578,7 +9692,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9593,23 +9707,933 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="K69" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9619,7 +10643,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -559,7 +559,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-prescription-status-reason</t>
   </si>
   <si>
     <t>feedback</t>
@@ -2196,7 +2196,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-be-referralprescription.xlsx
+++ b/StructureDefinition-be-referralprescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="582">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -3949,7 +3946,7 @@
         <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4021,7 +4018,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4035,7 +4032,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4057,13 +4054,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4149,7 +4146,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4171,13 +4168,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4263,7 +4260,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4285,13 +4282,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4377,7 +4374,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4399,13 +4396,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4491,7 +4488,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4513,13 +4510,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4605,7 +4602,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4627,13 +4624,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4719,7 +4716,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4741,13 +4738,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4833,7 +4830,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -4855,13 +4852,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4947,7 +4944,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -4969,13 +4966,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5061,7 +5058,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5083,10 +5080,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5172,11 +5169,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5198,16 +5195,16 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5256,7 +5253,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5288,7 +5285,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5311,16 +5308,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5358,7 +5355,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5368,7 +5365,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5383,27 +5380,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5425,16 +5422,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5484,7 +5481,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5499,24 +5496,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5628,11 +5625,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5654,13 +5651,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5742,7 +5739,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5768,16 +5765,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5802,31 +5799,31 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5847,7 +5844,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5884,16 +5881,16 @@
         <v>164</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5921,28 +5918,28 @@
         <v>173</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5960,10 +5957,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5974,7 +5971,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6000,65 +5997,65 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="R34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S34" t="s" s="2">
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6076,10 +6073,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6090,7 +6087,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6116,13 +6113,13 @@
         <v>149</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6136,43 +6133,43 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6190,10 +6187,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6204,7 +6201,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6227,13 +6224,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6284,7 +6281,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6302,10 +6299,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6316,7 +6313,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6339,16 +6336,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6398,7 +6395,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6416,10 +6413,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6430,7 +6427,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6453,16 +6450,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6512,7 +6509,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6527,13 +6524,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6544,7 +6541,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6570,13 +6567,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6626,7 +6623,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6641,13 +6638,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6658,11 +6655,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6681,13 +6678,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6738,7 +6735,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6753,13 +6750,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6770,11 +6767,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6793,13 +6790,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6850,7 +6847,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6865,13 +6862,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6882,11 +6879,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6905,19 +6902,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6966,7 +6963,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6981,13 +6978,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6998,7 +6995,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7024,13 +7021,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7056,14 +7053,14 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7080,7 +7077,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7095,24 +7092,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7138,13 +7135,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7170,14 +7167,14 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7194,7 +7191,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7209,16 +7206,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7226,7 +7223,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7252,16 +7249,16 @@
         <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7290,7 +7287,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7308,7 +7305,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7326,13 +7323,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AM45" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7340,7 +7337,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7366,10 +7363,10 @@
         <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7377,35 +7374,35 @@
         <v>79</v>
       </c>
       <c r="P46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="X46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Q46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X46" t="s" s="2">
+      <c r="Y46" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7422,7 +7419,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7437,16 +7434,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7454,7 +7451,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7477,26 +7474,26 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Q47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7540,7 +7537,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7555,13 +7552,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7572,11 +7569,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7598,13 +7595,13 @@
         <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7633,11 +7630,11 @@
         <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7669,28 +7666,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s=